--- a/Final Year Project.xlsx
+++ b/Final Year Project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ro select</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>"0001001"</t>
+  </si>
+  <si>
+    <t>"0001010"</t>
+  </si>
+  <si>
+    <t>"0001011"</t>
+  </si>
+  <si>
+    <t>"0001100"</t>
+  </si>
+  <si>
+    <t>"0001101"</t>
+  </si>
+  <si>
+    <t>"0001110"</t>
   </si>
 </sst>
 </file>
@@ -389,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:E643"/>
+  <dimension ref="B3:E963"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
-      <selection activeCell="E643" sqref="E643"/>
+    <sheetView tabSelected="1" topLeftCell="B895" workbookViewId="0">
+      <selection activeCell="M949" sqref="M949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7452,7 +7467,7 @@
         <v>136345</v>
       </c>
     </row>
-    <row r="641" spans="3:5">
+    <row r="641" spans="2:5">
       <c r="C641">
         <v>61</v>
       </c>
@@ -7463,7 +7478,7 @@
         <v>170415</v>
       </c>
     </row>
-    <row r="642" spans="3:5">
+    <row r="642" spans="2:5">
       <c r="C642">
         <v>62</v>
       </c>
@@ -7474,7 +7489,7 @@
         <v>167256</v>
       </c>
     </row>
-    <row r="643" spans="3:5">
+    <row r="643" spans="2:5">
       <c r="C643">
         <v>63</v>
       </c>
@@ -7483,6 +7498,3541 @@
       </c>
       <c r="E643">
         <v>231169</v>
+      </c>
+    </row>
+    <row r="644" spans="2:5">
+      <c r="B644" t="s">
+        <v>14</v>
+      </c>
+      <c r="C644">
+        <v>0</v>
+      </c>
+      <c r="D644">
+        <v>142180</v>
+      </c>
+      <c r="E644">
+        <v>141290</v>
+      </c>
+    </row>
+    <row r="645" spans="2:5">
+      <c r="C645">
+        <v>1</v>
+      </c>
+      <c r="D645">
+        <v>166082</v>
+      </c>
+      <c r="E645">
+        <v>165520</v>
+      </c>
+    </row>
+    <row r="646" spans="2:5">
+      <c r="C646">
+        <v>2</v>
+      </c>
+      <c r="D646">
+        <v>147201</v>
+      </c>
+      <c r="E646">
+        <v>146010</v>
+      </c>
+    </row>
+    <row r="647" spans="2:5">
+      <c r="C647">
+        <v>3</v>
+      </c>
+      <c r="D647">
+        <v>173188</v>
+      </c>
+      <c r="E647">
+        <v>172137</v>
+      </c>
+    </row>
+    <row r="648" spans="2:5">
+      <c r="C648">
+        <v>4</v>
+      </c>
+      <c r="D648">
+        <v>168093</v>
+      </c>
+      <c r="E648">
+        <v>166915</v>
+      </c>
+    </row>
+    <row r="649" spans="2:5">
+      <c r="C649">
+        <v>5</v>
+      </c>
+      <c r="D649">
+        <v>202388</v>
+      </c>
+      <c r="E649">
+        <v>201776</v>
+      </c>
+    </row>
+    <row r="650" spans="2:5">
+      <c r="C650">
+        <v>6</v>
+      </c>
+      <c r="D650">
+        <v>175268</v>
+      </c>
+      <c r="E650">
+        <v>173661</v>
+      </c>
+    </row>
+    <row r="651" spans="2:5">
+      <c r="C651">
+        <v>7</v>
+      </c>
+      <c r="D651">
+        <v>212947</v>
+      </c>
+      <c r="E651">
+        <v>211596</v>
+      </c>
+    </row>
+    <row r="652" spans="2:5">
+      <c r="C652">
+        <v>8</v>
+      </c>
+      <c r="D652">
+        <v>134535</v>
+      </c>
+      <c r="E652">
+        <v>134231</v>
+      </c>
+    </row>
+    <row r="653" spans="2:5">
+      <c r="C653">
+        <v>9</v>
+      </c>
+      <c r="D653">
+        <v>194283</v>
+      </c>
+      <c r="E653">
+        <v>193863</v>
+      </c>
+    </row>
+    <row r="654" spans="2:5">
+      <c r="C654">
+        <v>10</v>
+      </c>
+      <c r="D654">
+        <v>139077</v>
+      </c>
+      <c r="E654">
+        <v>138554</v>
+      </c>
+    </row>
+    <row r="655" spans="2:5">
+      <c r="C655">
+        <v>11</v>
+      </c>
+      <c r="D655">
+        <v>174495</v>
+      </c>
+      <c r="E655">
+        <v>173876</v>
+      </c>
+    </row>
+    <row r="656" spans="2:5">
+      <c r="C656">
+        <v>12</v>
+      </c>
+      <c r="D656">
+        <v>157656</v>
+      </c>
+      <c r="E656">
+        <v>157364</v>
+      </c>
+    </row>
+    <row r="657" spans="3:5">
+      <c r="C657">
+        <v>13</v>
+      </c>
+      <c r="D657">
+        <v>204697</v>
+      </c>
+      <c r="E657">
+        <v>204165</v>
+      </c>
+    </row>
+    <row r="658" spans="3:5">
+      <c r="C658">
+        <v>14</v>
+      </c>
+      <c r="D658">
+        <v>163970</v>
+      </c>
+      <c r="E658">
+        <v>163271</v>
+      </c>
+    </row>
+    <row r="659" spans="3:5">
+      <c r="C659">
+        <v>15</v>
+      </c>
+      <c r="D659">
+        <v>215452</v>
+      </c>
+      <c r="E659">
+        <v>214354</v>
+      </c>
+    </row>
+    <row r="660" spans="3:5">
+      <c r="C660">
+        <v>16</v>
+      </c>
+      <c r="D660">
+        <v>131507</v>
+      </c>
+      <c r="E660">
+        <v>130856</v>
+      </c>
+    </row>
+    <row r="661" spans="3:5">
+      <c r="C661">
+        <v>17</v>
+      </c>
+      <c r="D661">
+        <v>151694</v>
+      </c>
+      <c r="E661">
+        <v>151441</v>
+      </c>
+    </row>
+    <row r="662" spans="3:5">
+      <c r="C662">
+        <v>18</v>
+      </c>
+      <c r="D662">
+        <v>160063</v>
+      </c>
+      <c r="E662">
+        <v>159260</v>
+      </c>
+    </row>
+    <row r="663" spans="3:5">
+      <c r="C663">
+        <v>19</v>
+      </c>
+      <c r="D663">
+        <v>193986</v>
+      </c>
+      <c r="E663">
+        <v>193647</v>
+      </c>
+    </row>
+    <row r="664" spans="3:5">
+      <c r="C664">
+        <v>20</v>
+      </c>
+      <c r="D664">
+        <v>153588</v>
+      </c>
+      <c r="E664">
+        <v>152761</v>
+      </c>
+    </row>
+    <row r="665" spans="3:5">
+      <c r="C665">
+        <v>21</v>
+      </c>
+      <c r="D665">
+        <v>181993</v>
+      </c>
+      <c r="E665">
+        <v>181564</v>
+      </c>
+    </row>
+    <row r="666" spans="3:5">
+      <c r="C666">
+        <v>22</v>
+      </c>
+      <c r="D666">
+        <v>193884</v>
+      </c>
+      <c r="E666">
+        <v>192816</v>
+      </c>
+    </row>
+    <row r="667" spans="3:5">
+      <c r="C667">
+        <v>23</v>
+      </c>
+      <c r="D667">
+        <v>241139</v>
+      </c>
+      <c r="E667">
+        <v>240742</v>
+      </c>
+    </row>
+    <row r="668" spans="3:5">
+      <c r="C668">
+        <v>24</v>
+      </c>
+      <c r="D668">
+        <v>124997</v>
+      </c>
+      <c r="E668">
+        <v>124832</v>
+      </c>
+    </row>
+    <row r="669" spans="3:5">
+      <c r="C669">
+        <v>25</v>
+      </c>
+      <c r="D669">
+        <v>153038</v>
+      </c>
+      <c r="E669">
+        <v>152881</v>
+      </c>
+    </row>
+    <row r="670" spans="3:5">
+      <c r="C670">
+        <v>26</v>
+      </c>
+      <c r="D670">
+        <v>150470</v>
+      </c>
+      <c r="E670">
+        <v>150469</v>
+      </c>
+    </row>
+    <row r="671" spans="3:5">
+      <c r="C671">
+        <v>27</v>
+      </c>
+      <c r="D671">
+        <v>192887</v>
+      </c>
+      <c r="E671">
+        <v>193036</v>
+      </c>
+    </row>
+    <row r="672" spans="3:5">
+      <c r="C672">
+        <v>28</v>
+      </c>
+      <c r="D672">
+        <v>148250</v>
+      </c>
+      <c r="E672">
+        <v>148096</v>
+      </c>
+    </row>
+    <row r="673" spans="3:5">
+      <c r="C673">
+        <v>29</v>
+      </c>
+      <c r="D673">
+        <v>204436</v>
+      </c>
+      <c r="E673">
+        <v>203951</v>
+      </c>
+    </row>
+    <row r="674" spans="3:5">
+      <c r="C674">
+        <v>30</v>
+      </c>
+      <c r="D674">
+        <v>180209</v>
+      </c>
+      <c r="E674">
+        <v>180209</v>
+      </c>
+    </row>
+    <row r="675" spans="3:5">
+      <c r="C675">
+        <v>31</v>
+      </c>
+      <c r="D675">
+        <v>244202</v>
+      </c>
+      <c r="E675">
+        <v>244202</v>
+      </c>
+    </row>
+    <row r="676" spans="3:5">
+      <c r="C676">
+        <v>32</v>
+      </c>
+      <c r="D676">
+        <v>131116</v>
+      </c>
+      <c r="E676">
+        <v>130197</v>
+      </c>
+    </row>
+    <row r="677" spans="3:5">
+      <c r="C677">
+        <v>33</v>
+      </c>
+      <c r="D677">
+        <v>151190</v>
+      </c>
+      <c r="E677">
+        <v>150578</v>
+      </c>
+    </row>
+    <row r="678" spans="3:5">
+      <c r="C678">
+        <v>34</v>
+      </c>
+      <c r="D678">
+        <v>135452</v>
+      </c>
+      <c r="E678">
+        <v>134299</v>
+      </c>
+    </row>
+    <row r="679" spans="3:5">
+      <c r="C679">
+        <v>35</v>
+      </c>
+      <c r="D679">
+        <v>157100</v>
+      </c>
+      <c r="E679">
+        <v>156048</v>
+      </c>
+    </row>
+    <row r="680" spans="3:5">
+      <c r="C680">
+        <v>36</v>
+      </c>
+      <c r="D680">
+        <v>157137</v>
+      </c>
+      <c r="E680">
+        <v>155229</v>
+      </c>
+    </row>
+    <row r="681" spans="3:5">
+      <c r="C681">
+        <v>37</v>
+      </c>
+      <c r="D681">
+        <v>186741</v>
+      </c>
+      <c r="E681">
+        <v>184986</v>
+      </c>
+    </row>
+    <row r="682" spans="3:5">
+      <c r="C682">
+        <v>38</v>
+      </c>
+      <c r="D682">
+        <v>163226</v>
+      </c>
+      <c r="E682">
+        <v>160902</v>
+      </c>
+    </row>
+    <row r="683" spans="3:5">
+      <c r="C683">
+        <v>39</v>
+      </c>
+      <c r="D683">
+        <v>195750</v>
+      </c>
+      <c r="E683">
+        <v>193221</v>
+      </c>
+    </row>
+    <row r="684" spans="3:5">
+      <c r="C684">
+        <v>40</v>
+      </c>
+      <c r="D684">
+        <v>124537</v>
+      </c>
+      <c r="E684">
+        <v>124241</v>
+      </c>
+    </row>
+    <row r="685" spans="3:5">
+      <c r="C685">
+        <v>41</v>
+      </c>
+      <c r="D685">
+        <v>152368</v>
+      </c>
+      <c r="E685">
+        <v>151916</v>
+      </c>
+    </row>
+    <row r="686" spans="3:5">
+      <c r="C686">
+        <v>42</v>
+      </c>
+      <c r="D686">
+        <v>128492</v>
+      </c>
+      <c r="E686">
+        <v>127951</v>
+      </c>
+    </row>
+    <row r="687" spans="3:5">
+      <c r="C687">
+        <v>43</v>
+      </c>
+      <c r="D687">
+        <v>178998</v>
+      </c>
+      <c r="E687">
+        <v>178160</v>
+      </c>
+    </row>
+    <row r="688" spans="3:5">
+      <c r="C688">
+        <v>44</v>
+      </c>
+      <c r="D688">
+        <v>147841</v>
+      </c>
+      <c r="E688">
+        <v>146807</v>
+      </c>
+    </row>
+    <row r="689" spans="3:5">
+      <c r="C689">
+        <v>45</v>
+      </c>
+      <c r="D689">
+        <v>188555</v>
+      </c>
+      <c r="E689">
+        <v>186981</v>
+      </c>
+    </row>
+    <row r="690" spans="3:5">
+      <c r="C690">
+        <v>46</v>
+      </c>
+      <c r="D690">
+        <v>153403</v>
+      </c>
+      <c r="E690">
+        <v>152019</v>
+      </c>
+    </row>
+    <row r="691" spans="3:5">
+      <c r="C691">
+        <v>47</v>
+      </c>
+      <c r="D691">
+        <v>197537</v>
+      </c>
+      <c r="E691">
+        <v>195458</v>
+      </c>
+    </row>
+    <row r="692" spans="3:5">
+      <c r="C692">
+        <v>48</v>
+      </c>
+      <c r="D692">
+        <v>122156</v>
+      </c>
+      <c r="E692">
+        <v>121483</v>
+      </c>
+    </row>
+    <row r="693" spans="3:5">
+      <c r="C693">
+        <v>49</v>
+      </c>
+      <c r="D693">
+        <v>139287</v>
+      </c>
+      <c r="E693">
+        <v>138958</v>
+      </c>
+    </row>
+    <row r="694" spans="3:5">
+      <c r="C694">
+        <v>50</v>
+      </c>
+      <c r="D694">
+        <v>146290</v>
+      </c>
+      <c r="E694">
+        <v>145518</v>
+      </c>
+    </row>
+    <row r="695" spans="3:5">
+      <c r="C695">
+        <v>51</v>
+      </c>
+      <c r="D695">
+        <v>171947</v>
+      </c>
+      <c r="E695">
+        <v>171475</v>
+      </c>
+    </row>
+    <row r="696" spans="3:5">
+      <c r="C696">
+        <v>52</v>
+      </c>
+      <c r="D696">
+        <v>144307</v>
+      </c>
+      <c r="E696">
+        <v>142832</v>
+      </c>
+    </row>
+    <row r="697" spans="3:5">
+      <c r="C697">
+        <v>53</v>
+      </c>
+      <c r="D697">
+        <v>168971</v>
+      </c>
+      <c r="E697">
+        <v>167779</v>
+      </c>
+    </row>
+    <row r="698" spans="3:5">
+      <c r="C698">
+        <v>54</v>
+      </c>
+      <c r="D698">
+        <v>179349</v>
+      </c>
+      <c r="E698">
+        <v>177416</v>
+      </c>
+    </row>
+    <row r="699" spans="3:5">
+      <c r="C699">
+        <v>55</v>
+      </c>
+      <c r="D699">
+        <v>219158</v>
+      </c>
+      <c r="E699">
+        <v>217249</v>
+      </c>
+    </row>
+    <row r="700" spans="3:5">
+      <c r="C700">
+        <v>56</v>
+      </c>
+      <c r="D700">
+        <v>116564</v>
+      </c>
+      <c r="E700">
+        <v>116353</v>
+      </c>
+    </row>
+    <row r="701" spans="3:5">
+      <c r="C701">
+        <v>57</v>
+      </c>
+      <c r="D701">
+        <v>140343</v>
+      </c>
+      <c r="E701">
+        <v>140007</v>
+      </c>
+    </row>
+    <row r="702" spans="3:5">
+      <c r="C702">
+        <v>58</v>
+      </c>
+      <c r="D702">
+        <v>138240</v>
+      </c>
+      <c r="E702">
+        <v>138146</v>
+      </c>
+    </row>
+    <row r="703" spans="3:5">
+      <c r="C703">
+        <v>59</v>
+      </c>
+      <c r="D703">
+        <v>173309</v>
+      </c>
+      <c r="E703">
+        <v>173283</v>
+      </c>
+    </row>
+    <row r="704" spans="3:5">
+      <c r="C704">
+        <v>60</v>
+      </c>
+      <c r="D704">
+        <v>138475</v>
+      </c>
+      <c r="E704">
+        <v>137717</v>
+      </c>
+    </row>
+    <row r="705" spans="2:5">
+      <c r="C705">
+        <v>61</v>
+      </c>
+      <c r="D705">
+        <v>170610</v>
+      </c>
+      <c r="E705">
+        <v>169535</v>
+      </c>
+    </row>
+    <row r="706" spans="2:5">
+      <c r="C706">
+        <v>62</v>
+      </c>
+      <c r="D706">
+        <v>167460</v>
+      </c>
+      <c r="E706">
+        <v>166574</v>
+      </c>
+    </row>
+    <row r="707" spans="2:5">
+      <c r="C707">
+        <v>63</v>
+      </c>
+      <c r="D707">
+        <v>233194</v>
+      </c>
+      <c r="E707">
+        <v>231809</v>
+      </c>
+    </row>
+    <row r="708" spans="2:5">
+      <c r="B708" t="s">
+        <v>15</v>
+      </c>
+      <c r="C708">
+        <v>0</v>
+      </c>
+      <c r="D708">
+        <v>141104</v>
+      </c>
+      <c r="E708">
+        <v>141497</v>
+      </c>
+    </row>
+    <row r="709" spans="2:5">
+      <c r="C709">
+        <v>1</v>
+      </c>
+      <c r="D709">
+        <v>165383</v>
+      </c>
+      <c r="E709">
+        <v>165895</v>
+      </c>
+    </row>
+    <row r="710" spans="2:5">
+      <c r="C710">
+        <v>2</v>
+      </c>
+      <c r="D710">
+        <v>145881</v>
+      </c>
+      <c r="E710">
+        <v>146301</v>
+      </c>
+    </row>
+    <row r="711" spans="2:5">
+      <c r="C711">
+        <v>3</v>
+      </c>
+      <c r="D711">
+        <v>171979</v>
+      </c>
+      <c r="E711">
+        <v>172609</v>
+      </c>
+    </row>
+    <row r="712" spans="2:5">
+      <c r="C712">
+        <v>4</v>
+      </c>
+      <c r="D712">
+        <v>166759</v>
+      </c>
+      <c r="E712">
+        <v>166111</v>
+      </c>
+    </row>
+    <row r="713" spans="2:5">
+      <c r="C713">
+        <v>5</v>
+      </c>
+      <c r="D713">
+        <v>201723</v>
+      </c>
+      <c r="E713">
+        <v>200770</v>
+      </c>
+    </row>
+    <row r="714" spans="2:5">
+      <c r="C714">
+        <v>6</v>
+      </c>
+      <c r="D714">
+        <v>173435</v>
+      </c>
+      <c r="E714">
+        <v>172789</v>
+      </c>
+    </row>
+    <row r="715" spans="2:5">
+      <c r="C715">
+        <v>7</v>
+      </c>
+      <c r="D715">
+        <v>211389</v>
+      </c>
+      <c r="E715">
+        <v>210410</v>
+      </c>
+    </row>
+    <row r="716" spans="2:5">
+      <c r="C716">
+        <v>8</v>
+      </c>
+      <c r="D716">
+        <v>134145</v>
+      </c>
+      <c r="E716">
+        <v>134655</v>
+      </c>
+    </row>
+    <row r="717" spans="2:5">
+      <c r="C717">
+        <v>9</v>
+      </c>
+      <c r="D717">
+        <v>167860</v>
+      </c>
+      <c r="E717">
+        <v>167951</v>
+      </c>
+    </row>
+    <row r="718" spans="2:5">
+      <c r="C718">
+        <v>10</v>
+      </c>
+      <c r="D718">
+        <v>138465</v>
+      </c>
+      <c r="E718">
+        <v>138992</v>
+      </c>
+    </row>
+    <row r="719" spans="2:5">
+      <c r="C719">
+        <v>11</v>
+      </c>
+      <c r="D719">
+        <v>173727</v>
+      </c>
+      <c r="E719">
+        <v>173840</v>
+      </c>
+    </row>
+    <row r="720" spans="2:5">
+      <c r="C720">
+        <v>12</v>
+      </c>
+      <c r="D720">
+        <v>157275</v>
+      </c>
+      <c r="E720">
+        <v>156813</v>
+      </c>
+    </row>
+    <row r="721" spans="3:5">
+      <c r="C721">
+        <v>13</v>
+      </c>
+      <c r="D721">
+        <v>204049</v>
+      </c>
+      <c r="E721">
+        <v>202319</v>
+      </c>
+    </row>
+    <row r="722" spans="3:5">
+      <c r="C722">
+        <v>14</v>
+      </c>
+      <c r="D722">
+        <v>163163</v>
+      </c>
+      <c r="E722">
+        <v>162669</v>
+      </c>
+    </row>
+    <row r="723" spans="3:5">
+      <c r="C723">
+        <v>15</v>
+      </c>
+      <c r="D723">
+        <v>214184</v>
+      </c>
+      <c r="E723">
+        <v>212270</v>
+      </c>
+    </row>
+    <row r="724" spans="3:5">
+      <c r="C724">
+        <v>16</v>
+      </c>
+      <c r="D724">
+        <v>130786</v>
+      </c>
+      <c r="E724">
+        <v>131227</v>
+      </c>
+    </row>
+    <row r="725" spans="3:5">
+      <c r="C725">
+        <v>17</v>
+      </c>
+      <c r="D725">
+        <v>156723</v>
+      </c>
+      <c r="E725">
+        <v>157321</v>
+      </c>
+    </row>
+    <row r="726" spans="3:5">
+      <c r="C726">
+        <v>18</v>
+      </c>
+      <c r="D726">
+        <v>159170</v>
+      </c>
+      <c r="E726">
+        <v>159363</v>
+      </c>
+    </row>
+    <row r="727" spans="3:5">
+      <c r="C727">
+        <v>19</v>
+      </c>
+      <c r="D727">
+        <v>190815</v>
+      </c>
+      <c r="E727">
+        <v>191078</v>
+      </c>
+    </row>
+    <row r="728" spans="3:5">
+      <c r="C728">
+        <v>20</v>
+      </c>
+      <c r="D728">
+        <v>152664</v>
+      </c>
+      <c r="E728">
+        <v>152155</v>
+      </c>
+    </row>
+    <row r="729" spans="3:5">
+      <c r="C729">
+        <v>21</v>
+      </c>
+      <c r="D729">
+        <v>181452</v>
+      </c>
+      <c r="E729">
+        <v>180834</v>
+      </c>
+    </row>
+    <row r="730" spans="3:5">
+      <c r="C730">
+        <v>22</v>
+      </c>
+      <c r="D730">
+        <v>192688</v>
+      </c>
+      <c r="E730">
+        <v>191293</v>
+      </c>
+    </row>
+    <row r="731" spans="3:5">
+      <c r="C731">
+        <v>23</v>
+      </c>
+      <c r="D731">
+        <v>240678</v>
+      </c>
+      <c r="E731">
+        <v>238545</v>
+      </c>
+    </row>
+    <row r="732" spans="3:5">
+      <c r="C732">
+        <v>24</v>
+      </c>
+      <c r="D732">
+        <v>124796</v>
+      </c>
+      <c r="E732">
+        <v>125288</v>
+      </c>
+    </row>
+    <row r="733" spans="3:5">
+      <c r="C733">
+        <v>25</v>
+      </c>
+      <c r="D733">
+        <v>152776</v>
+      </c>
+      <c r="E733">
+        <v>152994</v>
+      </c>
+    </row>
+    <row r="734" spans="3:5">
+      <c r="C734">
+        <v>26</v>
+      </c>
+      <c r="D734">
+        <v>150369</v>
+      </c>
+      <c r="E734">
+        <v>150709</v>
+      </c>
+    </row>
+    <row r="735" spans="3:5">
+      <c r="C735">
+        <v>27</v>
+      </c>
+      <c r="D735">
+        <v>192874</v>
+      </c>
+      <c r="E735">
+        <v>192442</v>
+      </c>
+    </row>
+    <row r="736" spans="3:5">
+      <c r="C736">
+        <v>28</v>
+      </c>
+      <c r="D736">
+        <v>144563</v>
+      </c>
+      <c r="E736">
+        <v>144274</v>
+      </c>
+    </row>
+    <row r="737" spans="3:5">
+      <c r="C737">
+        <v>29</v>
+      </c>
+      <c r="D737">
+        <v>183476</v>
+      </c>
+      <c r="E737">
+        <v>182330</v>
+      </c>
+    </row>
+    <row r="738" spans="3:5">
+      <c r="C738">
+        <v>30</v>
+      </c>
+      <c r="D738">
+        <v>180116</v>
+      </c>
+      <c r="E738">
+        <v>179154</v>
+      </c>
+    </row>
+    <row r="739" spans="3:5">
+      <c r="C739">
+        <v>31</v>
+      </c>
+      <c r="D739">
+        <v>244128</v>
+      </c>
+      <c r="E739">
+        <v>241067</v>
+      </c>
+    </row>
+    <row r="740" spans="3:5">
+      <c r="C740">
+        <v>32</v>
+      </c>
+      <c r="D740">
+        <v>130144</v>
+      </c>
+      <c r="E740">
+        <v>129354</v>
+      </c>
+    </row>
+    <row r="741" spans="3:5">
+      <c r="C741">
+        <v>33</v>
+      </c>
+      <c r="D741">
+        <v>150468</v>
+      </c>
+      <c r="E741">
+        <v>149430</v>
+      </c>
+    </row>
+    <row r="742" spans="3:5">
+      <c r="C742">
+        <v>34</v>
+      </c>
+      <c r="D742">
+        <v>134172</v>
+      </c>
+      <c r="E742">
+        <v>133332</v>
+      </c>
+    </row>
+    <row r="743" spans="3:5">
+      <c r="C743">
+        <v>35</v>
+      </c>
+      <c r="D743">
+        <v>155969</v>
+      </c>
+      <c r="E743">
+        <v>154861</v>
+      </c>
+    </row>
+    <row r="744" spans="3:5">
+      <c r="C744">
+        <v>36</v>
+      </c>
+      <c r="D744">
+        <v>155168</v>
+      </c>
+      <c r="E744">
+        <v>154483</v>
+      </c>
+    </row>
+    <row r="745" spans="3:5">
+      <c r="C745">
+        <v>37</v>
+      </c>
+      <c r="D745">
+        <v>192120</v>
+      </c>
+      <c r="E745">
+        <v>191115</v>
+      </c>
+    </row>
+    <row r="746" spans="3:5">
+      <c r="C746">
+        <v>38</v>
+      </c>
+      <c r="D746">
+        <v>160928</v>
+      </c>
+      <c r="E746">
+        <v>160154</v>
+      </c>
+    </row>
+    <row r="747" spans="3:5">
+      <c r="C747">
+        <v>39</v>
+      </c>
+      <c r="D747">
+        <v>193155</v>
+      </c>
+      <c r="E747">
+        <v>191999</v>
+      </c>
+    </row>
+    <row r="748" spans="3:5">
+      <c r="C748">
+        <v>40</v>
+      </c>
+      <c r="D748">
+        <v>124182</v>
+      </c>
+      <c r="E748">
+        <v>123540</v>
+      </c>
+    </row>
+    <row r="749" spans="3:5">
+      <c r="C749">
+        <v>41</v>
+      </c>
+      <c r="D749">
+        <v>151843</v>
+      </c>
+      <c r="E749">
+        <v>150362</v>
+      </c>
+    </row>
+    <row r="750" spans="3:5">
+      <c r="C750">
+        <v>42</v>
+      </c>
+      <c r="D750">
+        <v>127892</v>
+      </c>
+      <c r="E750">
+        <v>127227</v>
+      </c>
+    </row>
+    <row r="751" spans="3:5">
+      <c r="C751">
+        <v>43</v>
+      </c>
+      <c r="D751">
+        <v>157453</v>
+      </c>
+      <c r="E751">
+        <v>155905</v>
+      </c>
+    </row>
+    <row r="752" spans="3:5">
+      <c r="C752">
+        <v>44</v>
+      </c>
+      <c r="D752">
+        <v>146766</v>
+      </c>
+      <c r="E752">
+        <v>146246</v>
+      </c>
+    </row>
+    <row r="753" spans="3:5">
+      <c r="C753">
+        <v>45</v>
+      </c>
+      <c r="D753">
+        <v>186906</v>
+      </c>
+      <c r="E753">
+        <v>185221</v>
+      </c>
+    </row>
+    <row r="754" spans="3:5">
+      <c r="C754">
+        <v>46</v>
+      </c>
+      <c r="D754">
+        <v>168480</v>
+      </c>
+      <c r="E754">
+        <v>167823</v>
+      </c>
+    </row>
+    <row r="755" spans="3:5">
+      <c r="C755">
+        <v>47</v>
+      </c>
+      <c r="D755">
+        <v>195385</v>
+      </c>
+      <c r="E755">
+        <v>193517</v>
+      </c>
+    </row>
+    <row r="756" spans="3:5">
+      <c r="C756">
+        <v>48</v>
+      </c>
+      <c r="D756">
+        <v>121443</v>
+      </c>
+      <c r="E756">
+        <v>120818</v>
+      </c>
+    </row>
+    <row r="757" spans="3:5">
+      <c r="C757">
+        <v>49</v>
+      </c>
+      <c r="D757">
+        <v>138889</v>
+      </c>
+      <c r="E757">
+        <v>138091</v>
+      </c>
+    </row>
+    <row r="758" spans="3:5">
+      <c r="C758">
+        <v>50</v>
+      </c>
+      <c r="D758">
+        <v>145425</v>
+      </c>
+      <c r="E758">
+        <v>144146</v>
+      </c>
+    </row>
+    <row r="759" spans="3:5">
+      <c r="C759">
+        <v>51</v>
+      </c>
+      <c r="D759">
+        <v>171424</v>
+      </c>
+      <c r="E759">
+        <v>169711</v>
+      </c>
+    </row>
+    <row r="760" spans="3:5">
+      <c r="C760">
+        <v>52</v>
+      </c>
+      <c r="D760">
+        <v>142804</v>
+      </c>
+      <c r="E760">
+        <v>142313</v>
+      </c>
+    </row>
+    <row r="761" spans="3:5">
+      <c r="C761">
+        <v>53</v>
+      </c>
+      <c r="D761">
+        <v>173470</v>
+      </c>
+      <c r="E761">
+        <v>172832</v>
+      </c>
+    </row>
+    <row r="762" spans="3:5">
+      <c r="C762">
+        <v>54</v>
+      </c>
+      <c r="D762">
+        <v>177352</v>
+      </c>
+      <c r="E762">
+        <v>176004</v>
+      </c>
+    </row>
+    <row r="763" spans="3:5">
+      <c r="C763">
+        <v>55</v>
+      </c>
+      <c r="D763">
+        <v>217193</v>
+      </c>
+      <c r="E763">
+        <v>215092</v>
+      </c>
+    </row>
+    <row r="764" spans="3:5">
+      <c r="C764">
+        <v>56</v>
+      </c>
+      <c r="D764">
+        <v>116311</v>
+      </c>
+      <c r="E764">
+        <v>115825</v>
+      </c>
+    </row>
+    <row r="765" spans="3:5">
+      <c r="C765">
+        <v>57</v>
+      </c>
+      <c r="D765">
+        <v>140084</v>
+      </c>
+      <c r="E765">
+        <v>138914</v>
+      </c>
+    </row>
+    <row r="766" spans="3:5">
+      <c r="C766">
+        <v>58</v>
+      </c>
+      <c r="D766">
+        <v>144859</v>
+      </c>
+      <c r="E766">
+        <v>143735</v>
+      </c>
+    </row>
+    <row r="767" spans="3:5">
+      <c r="C767">
+        <v>59</v>
+      </c>
+      <c r="D767">
+        <v>173260</v>
+      </c>
+      <c r="E767">
+        <v>170884</v>
+      </c>
+    </row>
+    <row r="768" spans="3:5">
+      <c r="C768">
+        <v>60</v>
+      </c>
+      <c r="D768">
+        <v>135732</v>
+      </c>
+      <c r="E768">
+        <v>135419</v>
+      </c>
+    </row>
+    <row r="769" spans="2:5">
+      <c r="C769">
+        <v>61</v>
+      </c>
+      <c r="D769">
+        <v>169453</v>
+      </c>
+      <c r="E769">
+        <v>168278</v>
+      </c>
+    </row>
+    <row r="770" spans="2:5">
+      <c r="C770">
+        <v>62</v>
+      </c>
+      <c r="D770">
+        <v>166533</v>
+      </c>
+      <c r="E770">
+        <v>165516</v>
+      </c>
+    </row>
+    <row r="771" spans="2:5">
+      <c r="C771">
+        <v>63</v>
+      </c>
+      <c r="D771">
+        <v>220083</v>
+      </c>
+      <c r="E771">
+        <v>217213</v>
+      </c>
+    </row>
+    <row r="772" spans="2:5">
+      <c r="B772" t="s">
+        <v>16</v>
+      </c>
+      <c r="C772">
+        <v>0</v>
+      </c>
+      <c r="D772">
+        <v>141446</v>
+      </c>
+      <c r="E772">
+        <v>141683</v>
+      </c>
+    </row>
+    <row r="773" spans="2:5">
+      <c r="C773">
+        <v>1</v>
+      </c>
+      <c r="D773">
+        <v>168476</v>
+      </c>
+      <c r="E773">
+        <v>168889</v>
+      </c>
+    </row>
+    <row r="774" spans="2:5">
+      <c r="C774">
+        <v>2</v>
+      </c>
+      <c r="D774">
+        <v>146259</v>
+      </c>
+      <c r="E774">
+        <v>147479</v>
+      </c>
+    </row>
+    <row r="775" spans="2:5">
+      <c r="C775">
+        <v>3</v>
+      </c>
+      <c r="D775">
+        <v>175466</v>
+      </c>
+      <c r="E775">
+        <v>177032</v>
+      </c>
+    </row>
+    <row r="776" spans="2:5">
+      <c r="C776">
+        <v>4</v>
+      </c>
+      <c r="D776">
+        <v>166018</v>
+      </c>
+      <c r="E776">
+        <v>166721</v>
+      </c>
+    </row>
+    <row r="777" spans="2:5">
+      <c r="C777">
+        <v>5</v>
+      </c>
+      <c r="D777">
+        <v>200430</v>
+      </c>
+      <c r="E777">
+        <v>201183</v>
+      </c>
+    </row>
+    <row r="778" spans="2:5">
+      <c r="C778">
+        <v>6</v>
+      </c>
+      <c r="D778">
+        <v>172655</v>
+      </c>
+      <c r="E778">
+        <v>174585</v>
+      </c>
+    </row>
+    <row r="779" spans="2:5">
+      <c r="C779">
+        <v>7</v>
+      </c>
+      <c r="D779">
+        <v>210329</v>
+      </c>
+      <c r="E779">
+        <v>212847</v>
+      </c>
+    </row>
+    <row r="780" spans="2:5">
+      <c r="C780">
+        <v>8</v>
+      </c>
+      <c r="D780">
+        <v>143635</v>
+      </c>
+      <c r="E780">
+        <v>144115</v>
+      </c>
+    </row>
+    <row r="781" spans="2:5">
+      <c r="C781">
+        <v>9</v>
+      </c>
+      <c r="D781">
+        <v>167087</v>
+      </c>
+      <c r="E781">
+        <v>168047</v>
+      </c>
+    </row>
+    <row r="782" spans="2:5">
+      <c r="C782">
+        <v>10</v>
+      </c>
+      <c r="D782">
+        <v>139963</v>
+      </c>
+      <c r="E782">
+        <v>141267</v>
+      </c>
+    </row>
+    <row r="783" spans="2:5">
+      <c r="C783">
+        <v>11</v>
+      </c>
+      <c r="D783">
+        <v>174525</v>
+      </c>
+      <c r="E783">
+        <v>176573</v>
+      </c>
+    </row>
+    <row r="784" spans="2:5">
+      <c r="C784">
+        <v>12</v>
+      </c>
+      <c r="D784">
+        <v>167129</v>
+      </c>
+      <c r="E784">
+        <v>168054</v>
+      </c>
+    </row>
+    <row r="785" spans="3:5">
+      <c r="C785">
+        <v>13</v>
+      </c>
+      <c r="D785">
+        <v>203784</v>
+      </c>
+      <c r="E785">
+        <v>205155</v>
+      </c>
+    </row>
+    <row r="786" spans="3:5">
+      <c r="C786">
+        <v>14</v>
+      </c>
+      <c r="D786">
+        <v>162699</v>
+      </c>
+      <c r="E786">
+        <v>164707</v>
+      </c>
+    </row>
+    <row r="787" spans="3:5">
+      <c r="C787">
+        <v>15</v>
+      </c>
+      <c r="D787">
+        <v>216886</v>
+      </c>
+      <c r="E787">
+        <v>220138</v>
+      </c>
+    </row>
+    <row r="788" spans="3:5">
+      <c r="C788">
+        <v>16</v>
+      </c>
+      <c r="D788">
+        <v>131267</v>
+      </c>
+      <c r="E788">
+        <v>132036</v>
+      </c>
+    </row>
+    <row r="789" spans="3:5">
+      <c r="C789">
+        <v>17</v>
+      </c>
+      <c r="D789">
+        <v>152144</v>
+      </c>
+      <c r="E789">
+        <v>152987</v>
+      </c>
+    </row>
+    <row r="790" spans="3:5">
+      <c r="C790">
+        <v>18</v>
+      </c>
+      <c r="D790">
+        <v>159360</v>
+      </c>
+      <c r="E790">
+        <v>160154</v>
+      </c>
+    </row>
+    <row r="791" spans="3:5">
+      <c r="C791">
+        <v>19</v>
+      </c>
+      <c r="D791">
+        <v>191102</v>
+      </c>
+      <c r="E791">
+        <v>191984</v>
+      </c>
+    </row>
+    <row r="792" spans="3:5">
+      <c r="C792">
+        <v>20</v>
+      </c>
+      <c r="D792">
+        <v>152217</v>
+      </c>
+      <c r="E792">
+        <v>153380</v>
+      </c>
+    </row>
+    <row r="793" spans="3:5">
+      <c r="C793">
+        <v>21</v>
+      </c>
+      <c r="D793">
+        <v>180885</v>
+      </c>
+      <c r="E793">
+        <v>182291</v>
+      </c>
+    </row>
+    <row r="794" spans="3:5">
+      <c r="C794">
+        <v>22</v>
+      </c>
+      <c r="D794">
+        <v>191342</v>
+      </c>
+      <c r="E794">
+        <v>192521</v>
+      </c>
+    </row>
+    <row r="795" spans="3:5">
+      <c r="C795">
+        <v>23</v>
+      </c>
+      <c r="D795">
+        <v>238742</v>
+      </c>
+      <c r="E795">
+        <v>240494</v>
+      </c>
+    </row>
+    <row r="796" spans="3:5">
+      <c r="C796">
+        <v>24</v>
+      </c>
+      <c r="D796">
+        <v>125323</v>
+      </c>
+      <c r="E796">
+        <v>126176</v>
+      </c>
+    </row>
+    <row r="797" spans="3:5">
+      <c r="C797">
+        <v>25</v>
+      </c>
+      <c r="D797">
+        <v>152951</v>
+      </c>
+      <c r="E797">
+        <v>154284</v>
+      </c>
+    </row>
+    <row r="798" spans="3:5">
+      <c r="C798">
+        <v>26</v>
+      </c>
+      <c r="D798">
+        <v>152184</v>
+      </c>
+      <c r="E798">
+        <v>153126</v>
+      </c>
+    </row>
+    <row r="799" spans="3:5">
+      <c r="C799">
+        <v>27</v>
+      </c>
+      <c r="D799">
+        <v>173785</v>
+      </c>
+      <c r="E799">
+        <v>175829</v>
+      </c>
+    </row>
+    <row r="800" spans="3:5">
+      <c r="C800">
+        <v>28</v>
+      </c>
+      <c r="D800">
+        <v>144252</v>
+      </c>
+      <c r="E800">
+        <v>145530</v>
+      </c>
+    </row>
+    <row r="801" spans="3:5">
+      <c r="C801">
+        <v>29</v>
+      </c>
+      <c r="D801">
+        <v>182206</v>
+      </c>
+      <c r="E801">
+        <v>184152</v>
+      </c>
+    </row>
+    <row r="802" spans="3:5">
+      <c r="C802">
+        <v>30</v>
+      </c>
+      <c r="D802">
+        <v>179022</v>
+      </c>
+      <c r="E802">
+        <v>180583</v>
+      </c>
+    </row>
+    <row r="803" spans="3:5">
+      <c r="C803">
+        <v>31</v>
+      </c>
+      <c r="D803">
+        <v>241087</v>
+      </c>
+      <c r="E803">
+        <v>243714</v>
+      </c>
+    </row>
+    <row r="804" spans="3:5">
+      <c r="C804">
+        <v>32</v>
+      </c>
+      <c r="D804">
+        <v>129351</v>
+      </c>
+      <c r="E804">
+        <v>130263</v>
+      </c>
+    </row>
+    <row r="805" spans="3:5">
+      <c r="C805">
+        <v>33</v>
+      </c>
+      <c r="D805">
+        <v>149428</v>
+      </c>
+      <c r="E805">
+        <v>150558</v>
+      </c>
+    </row>
+    <row r="806" spans="3:5">
+      <c r="C806">
+        <v>34</v>
+      </c>
+      <c r="D806">
+        <v>133293</v>
+      </c>
+      <c r="E806">
+        <v>135020</v>
+      </c>
+    </row>
+    <row r="807" spans="3:5">
+      <c r="C807">
+        <v>35</v>
+      </c>
+      <c r="D807">
+        <v>154815</v>
+      </c>
+      <c r="E807">
+        <v>156996</v>
+      </c>
+    </row>
+    <row r="808" spans="3:5">
+      <c r="C808">
+        <v>36</v>
+      </c>
+      <c r="D808">
+        <v>159687</v>
+      </c>
+      <c r="E808">
+        <v>160978</v>
+      </c>
+    </row>
+    <row r="809" spans="3:5">
+      <c r="C809">
+        <v>37</v>
+      </c>
+      <c r="D809">
+        <v>184066</v>
+      </c>
+      <c r="E809">
+        <v>185629</v>
+      </c>
+    </row>
+    <row r="810" spans="3:5">
+      <c r="C810">
+        <v>38</v>
+      </c>
+      <c r="D810">
+        <v>159995</v>
+      </c>
+      <c r="E810">
+        <v>162268</v>
+      </c>
+    </row>
+    <row r="811" spans="3:5">
+      <c r="C811">
+        <v>39</v>
+      </c>
+      <c r="D811">
+        <v>194234</v>
+      </c>
+      <c r="E811">
+        <v>197480</v>
+      </c>
+    </row>
+    <row r="812" spans="3:5">
+      <c r="C812">
+        <v>40</v>
+      </c>
+      <c r="D812">
+        <v>123542</v>
+      </c>
+      <c r="E812">
+        <v>124584</v>
+      </c>
+    </row>
+    <row r="813" spans="3:5">
+      <c r="C813">
+        <v>41</v>
+      </c>
+      <c r="D813">
+        <v>150368</v>
+      </c>
+      <c r="E813">
+        <v>151853</v>
+      </c>
+    </row>
+    <row r="814" spans="3:5">
+      <c r="C814">
+        <v>42</v>
+      </c>
+      <c r="D814">
+        <v>127235</v>
+      </c>
+      <c r="E814">
+        <v>129006</v>
+      </c>
+    </row>
+    <row r="815" spans="3:5">
+      <c r="C815">
+        <v>43</v>
+      </c>
+      <c r="D815">
+        <v>155868</v>
+      </c>
+      <c r="E815">
+        <v>158397</v>
+      </c>
+    </row>
+    <row r="816" spans="3:5">
+      <c r="C816">
+        <v>44</v>
+      </c>
+      <c r="D816">
+        <v>155759</v>
+      </c>
+      <c r="E816">
+        <v>157264</v>
+      </c>
+    </row>
+    <row r="817" spans="3:5">
+      <c r="C817">
+        <v>45</v>
+      </c>
+      <c r="D817">
+        <v>185201</v>
+      </c>
+      <c r="E817">
+        <v>187287</v>
+      </c>
+    </row>
+    <row r="818" spans="3:5">
+      <c r="C818">
+        <v>46</v>
+      </c>
+      <c r="D818">
+        <v>151373</v>
+      </c>
+      <c r="E818">
+        <v>153658</v>
+      </c>
+    </row>
+    <row r="819" spans="3:5">
+      <c r="C819">
+        <v>47</v>
+      </c>
+      <c r="D819">
+        <v>193633</v>
+      </c>
+      <c r="E819">
+        <v>197492</v>
+      </c>
+    </row>
+    <row r="820" spans="3:5">
+      <c r="C820">
+        <v>48</v>
+      </c>
+      <c r="D820">
+        <v>120744</v>
+      </c>
+      <c r="E820">
+        <v>121970</v>
+      </c>
+    </row>
+    <row r="821" spans="3:5">
+      <c r="C821">
+        <v>49</v>
+      </c>
+      <c r="D821">
+        <v>138057</v>
+      </c>
+      <c r="E821">
+        <v>139523</v>
+      </c>
+    </row>
+    <row r="822" spans="3:5">
+      <c r="C822">
+        <v>50</v>
+      </c>
+      <c r="D822">
+        <v>144130</v>
+      </c>
+      <c r="E822">
+        <v>145557</v>
+      </c>
+    </row>
+    <row r="823" spans="3:5">
+      <c r="C823">
+        <v>51</v>
+      </c>
+      <c r="D823">
+        <v>169657</v>
+      </c>
+      <c r="E823">
+        <v>171402</v>
+      </c>
+    </row>
+    <row r="824" spans="3:5">
+      <c r="C824">
+        <v>52</v>
+      </c>
+      <c r="D824">
+        <v>142264</v>
+      </c>
+      <c r="E824">
+        <v>143790</v>
+      </c>
+    </row>
+    <row r="825" spans="3:5">
+      <c r="C825">
+        <v>53</v>
+      </c>
+      <c r="D825">
+        <v>167108</v>
+      </c>
+      <c r="E825">
+        <v>168991</v>
+      </c>
+    </row>
+    <row r="826" spans="3:5">
+      <c r="C826">
+        <v>54</v>
+      </c>
+      <c r="D826">
+        <v>175918</v>
+      </c>
+      <c r="E826">
+        <v>177911</v>
+      </c>
+    </row>
+    <row r="827" spans="3:5">
+      <c r="C827">
+        <v>55</v>
+      </c>
+      <c r="D827">
+        <v>215187</v>
+      </c>
+      <c r="E827">
+        <v>217745</v>
+      </c>
+    </row>
+    <row r="828" spans="3:5">
+      <c r="C828">
+        <v>56</v>
+      </c>
+      <c r="D828">
+        <v>115765</v>
+      </c>
+      <c r="E828">
+        <v>117011</v>
+      </c>
+    </row>
+    <row r="829" spans="3:5">
+      <c r="C829">
+        <v>57</v>
+      </c>
+      <c r="D829">
+        <v>138929</v>
+      </c>
+      <c r="E829">
+        <v>140666</v>
+      </c>
+    </row>
+    <row r="830" spans="3:5">
+      <c r="C830">
+        <v>58</v>
+      </c>
+      <c r="D830">
+        <v>137028</v>
+      </c>
+      <c r="E830">
+        <v>138430</v>
+      </c>
+    </row>
+    <row r="831" spans="3:5">
+      <c r="C831">
+        <v>59</v>
+      </c>
+      <c r="D831">
+        <v>170854</v>
+      </c>
+      <c r="E831">
+        <v>173207</v>
+      </c>
+    </row>
+    <row r="832" spans="3:5">
+      <c r="C832">
+        <v>60</v>
+      </c>
+      <c r="D832">
+        <v>135371</v>
+      </c>
+      <c r="E832">
+        <v>136957</v>
+      </c>
+    </row>
+    <row r="833" spans="2:5">
+      <c r="C833">
+        <v>61</v>
+      </c>
+      <c r="D833">
+        <v>168250</v>
+      </c>
+      <c r="E833">
+        <v>170623</v>
+      </c>
+    </row>
+    <row r="834" spans="2:5">
+      <c r="C834">
+        <v>62</v>
+      </c>
+      <c r="D834">
+        <v>169515</v>
+      </c>
+      <c r="E834">
+        <v>171684</v>
+      </c>
+    </row>
+    <row r="835" spans="2:5">
+      <c r="C835">
+        <v>63</v>
+      </c>
+      <c r="D835">
+        <v>217079</v>
+      </c>
+      <c r="E835">
+        <v>220635</v>
+      </c>
+    </row>
+    <row r="836" spans="2:5">
+      <c r="B836" t="s">
+        <v>17</v>
+      </c>
+      <c r="C836">
+        <v>0</v>
+      </c>
+      <c r="D836">
+        <v>141644</v>
+      </c>
+      <c r="E836">
+        <v>142537</v>
+      </c>
+    </row>
+    <row r="837" spans="2:5">
+      <c r="C837">
+        <v>1</v>
+      </c>
+      <c r="D837">
+        <v>166190</v>
+      </c>
+      <c r="E837">
+        <v>167211</v>
+      </c>
+    </row>
+    <row r="838" spans="2:5">
+      <c r="C838">
+        <v>2</v>
+      </c>
+      <c r="D838">
+        <v>147421</v>
+      </c>
+      <c r="E838">
+        <v>147598</v>
+      </c>
+    </row>
+    <row r="839" spans="2:5">
+      <c r="C839">
+        <v>3</v>
+      </c>
+      <c r="D839">
+        <v>173975</v>
+      </c>
+      <c r="E839">
+        <v>174245</v>
+      </c>
+    </row>
+    <row r="840" spans="2:5">
+      <c r="C840">
+        <v>4</v>
+      </c>
+      <c r="D840">
+        <v>166647</v>
+      </c>
+      <c r="E840">
+        <v>167350</v>
+      </c>
+    </row>
+    <row r="841" spans="2:5">
+      <c r="C841">
+        <v>5</v>
+      </c>
+      <c r="D841">
+        <v>201127</v>
+      </c>
+      <c r="E841">
+        <v>202331</v>
+      </c>
+    </row>
+    <row r="842" spans="2:5">
+      <c r="C842">
+        <v>6</v>
+      </c>
+      <c r="D842">
+        <v>174492</v>
+      </c>
+      <c r="E842">
+        <v>174487</v>
+      </c>
+    </row>
+    <row r="843" spans="2:5">
+      <c r="C843">
+        <v>7</v>
+      </c>
+      <c r="D843">
+        <v>212668</v>
+      </c>
+      <c r="E843">
+        <v>212713</v>
+      </c>
+    </row>
+    <row r="844" spans="2:5">
+      <c r="C844">
+        <v>8</v>
+      </c>
+      <c r="D844">
+        <v>135037</v>
+      </c>
+      <c r="E844">
+        <v>134904</v>
+      </c>
+    </row>
+    <row r="845" spans="2:5">
+      <c r="C845">
+        <v>9</v>
+      </c>
+      <c r="D845">
+        <v>167792</v>
+      </c>
+      <c r="E845">
+        <v>168828</v>
+      </c>
+    </row>
+    <row r="846" spans="2:5">
+      <c r="C846">
+        <v>10</v>
+      </c>
+      <c r="D846">
+        <v>140194</v>
+      </c>
+      <c r="E846">
+        <v>139483</v>
+      </c>
+    </row>
+    <row r="847" spans="2:5">
+      <c r="C847">
+        <v>11</v>
+      </c>
+      <c r="D847">
+        <v>175724</v>
+      </c>
+      <c r="E847">
+        <v>176084</v>
+      </c>
+    </row>
+    <row r="848" spans="2:5">
+      <c r="C848">
+        <v>12</v>
+      </c>
+      <c r="D848">
+        <v>169888</v>
+      </c>
+      <c r="E848">
+        <v>169547</v>
+      </c>
+    </row>
+    <row r="849" spans="3:5">
+      <c r="C849">
+        <v>13</v>
+      </c>
+      <c r="D849">
+        <v>203970</v>
+      </c>
+      <c r="E849">
+        <v>205098</v>
+      </c>
+    </row>
+    <row r="850" spans="3:5">
+      <c r="C850">
+        <v>14</v>
+      </c>
+      <c r="D850">
+        <v>164538</v>
+      </c>
+      <c r="E850">
+        <v>163423</v>
+      </c>
+    </row>
+    <row r="851" spans="3:5">
+      <c r="C851">
+        <v>15</v>
+      </c>
+      <c r="D851">
+        <v>215320</v>
+      </c>
+      <c r="E851">
+        <v>215539</v>
+      </c>
+    </row>
+    <row r="852" spans="3:5">
+      <c r="C852">
+        <v>16</v>
+      </c>
+      <c r="D852">
+        <v>131880</v>
+      </c>
+      <c r="E852">
+        <v>132121</v>
+      </c>
+    </row>
+    <row r="853" spans="3:5">
+      <c r="C853">
+        <v>17</v>
+      </c>
+      <c r="D853">
+        <v>152872</v>
+      </c>
+      <c r="E853">
+        <v>153171</v>
+      </c>
+    </row>
+    <row r="854" spans="3:5">
+      <c r="C854">
+        <v>18</v>
+      </c>
+      <c r="D854">
+        <v>160041</v>
+      </c>
+      <c r="E854">
+        <v>160910</v>
+      </c>
+    </row>
+    <row r="855" spans="3:5">
+      <c r="C855">
+        <v>19</v>
+      </c>
+      <c r="D855">
+        <v>191906</v>
+      </c>
+      <c r="E855">
+        <v>193228</v>
+      </c>
+    </row>
+    <row r="856" spans="3:5">
+      <c r="C856">
+        <v>20</v>
+      </c>
+      <c r="D856">
+        <v>153257</v>
+      </c>
+      <c r="E856">
+        <v>153435</v>
+      </c>
+    </row>
+    <row r="857" spans="3:5">
+      <c r="C857">
+        <v>21</v>
+      </c>
+      <c r="D857">
+        <v>182226</v>
+      </c>
+      <c r="E857">
+        <v>182414</v>
+      </c>
+    </row>
+    <row r="858" spans="3:5">
+      <c r="C858">
+        <v>22</v>
+      </c>
+      <c r="D858">
+        <v>192196</v>
+      </c>
+      <c r="E858">
+        <v>193500</v>
+      </c>
+    </row>
+    <row r="859" spans="3:5">
+      <c r="C859">
+        <v>23</v>
+      </c>
+      <c r="D859">
+        <v>240137</v>
+      </c>
+      <c r="E859">
+        <v>241687</v>
+      </c>
+    </row>
+    <row r="860" spans="3:5">
+      <c r="C860">
+        <v>24</v>
+      </c>
+      <c r="D860">
+        <v>126071</v>
+      </c>
+      <c r="E860">
+        <v>125645</v>
+      </c>
+    </row>
+    <row r="861" spans="3:5">
+      <c r="C861">
+        <v>25</v>
+      </c>
+      <c r="D861">
+        <v>154143</v>
+      </c>
+      <c r="E861">
+        <v>154582</v>
+      </c>
+    </row>
+    <row r="862" spans="3:5">
+      <c r="C862">
+        <v>26</v>
+      </c>
+      <c r="D862">
+        <v>151543</v>
+      </c>
+      <c r="E862">
+        <v>151286</v>
+      </c>
+    </row>
+    <row r="863" spans="3:5">
+      <c r="C863">
+        <v>27</v>
+      </c>
+      <c r="D863">
+        <v>193949</v>
+      </c>
+      <c r="E863">
+        <v>195415</v>
+      </c>
+    </row>
+    <row r="864" spans="3:5">
+      <c r="C864">
+        <v>28</v>
+      </c>
+      <c r="D864">
+        <v>145489</v>
+      </c>
+      <c r="E864">
+        <v>144725</v>
+      </c>
+    </row>
+    <row r="865" spans="3:5">
+      <c r="C865">
+        <v>29</v>
+      </c>
+      <c r="D865">
+        <v>184036</v>
+      </c>
+      <c r="E865">
+        <v>184419</v>
+      </c>
+    </row>
+    <row r="866" spans="3:5">
+      <c r="C866">
+        <v>30</v>
+      </c>
+      <c r="D866">
+        <v>180452</v>
+      </c>
+      <c r="E866">
+        <v>179965</v>
+      </c>
+    </row>
+    <row r="867" spans="3:5">
+      <c r="C867">
+        <v>31</v>
+      </c>
+      <c r="D867">
+        <v>243594</v>
+      </c>
+      <c r="E867">
+        <v>245288</v>
+      </c>
+    </row>
+    <row r="868" spans="3:5">
+      <c r="C868">
+        <v>32</v>
+      </c>
+      <c r="D868">
+        <v>130165</v>
+      </c>
+      <c r="E868">
+        <v>130174</v>
+      </c>
+    </row>
+    <row r="869" spans="3:5">
+      <c r="C869">
+        <v>33</v>
+      </c>
+      <c r="D869">
+        <v>150458</v>
+      </c>
+      <c r="E869">
+        <v>150533</v>
+      </c>
+    </row>
+    <row r="870" spans="3:5">
+      <c r="C870">
+        <v>34</v>
+      </c>
+      <c r="D870">
+        <v>134979</v>
+      </c>
+      <c r="E870">
+        <v>134419</v>
+      </c>
+    </row>
+    <row r="871" spans="3:5">
+      <c r="C871">
+        <v>35</v>
+      </c>
+      <c r="D871">
+        <v>156957</v>
+      </c>
+      <c r="E871">
+        <v>156308</v>
+      </c>
+    </row>
+    <row r="872" spans="3:5">
+      <c r="C872">
+        <v>36</v>
+      </c>
+      <c r="D872">
+        <v>155556</v>
+      </c>
+      <c r="E872">
+        <v>155510</v>
+      </c>
+    </row>
+    <row r="873" spans="3:5">
+      <c r="C873">
+        <v>37</v>
+      </c>
+      <c r="D873">
+        <v>185296</v>
+      </c>
+      <c r="E873">
+        <v>185299</v>
+      </c>
+    </row>
+    <row r="874" spans="3:5">
+      <c r="C874">
+        <v>38</v>
+      </c>
+      <c r="D874">
+        <v>162231</v>
+      </c>
+      <c r="E874">
+        <v>161582</v>
+      </c>
+    </row>
+    <row r="875" spans="3:5">
+      <c r="C875">
+        <v>39</v>
+      </c>
+      <c r="D875">
+        <v>195099</v>
+      </c>
+      <c r="E875">
+        <v>194013</v>
+      </c>
+    </row>
+    <row r="876" spans="3:5">
+      <c r="C876">
+        <v>40</v>
+      </c>
+      <c r="D876">
+        <v>124501</v>
+      </c>
+      <c r="E876">
+        <v>123891</v>
+      </c>
+    </row>
+    <row r="877" spans="3:5">
+      <c r="C877">
+        <v>41</v>
+      </c>
+      <c r="D877">
+        <v>151809</v>
+      </c>
+      <c r="E877">
+        <v>151809</v>
+      </c>
+    </row>
+    <row r="878" spans="3:5">
+      <c r="C878">
+        <v>42</v>
+      </c>
+      <c r="D878">
+        <v>128919</v>
+      </c>
+      <c r="E878">
+        <v>127743</v>
+      </c>
+    </row>
+    <row r="879" spans="3:5">
+      <c r="C879">
+        <v>43</v>
+      </c>
+      <c r="D879">
+        <v>158365</v>
+      </c>
+      <c r="E879">
+        <v>157813</v>
+      </c>
+    </row>
+    <row r="880" spans="3:5">
+      <c r="C880">
+        <v>44</v>
+      </c>
+      <c r="D880">
+        <v>147605</v>
+      </c>
+      <c r="E880">
+        <v>146576</v>
+      </c>
+    </row>
+    <row r="881" spans="3:5">
+      <c r="C881">
+        <v>45</v>
+      </c>
+      <c r="D881">
+        <v>187310</v>
+      </c>
+      <c r="E881">
+        <v>187270</v>
+      </c>
+    </row>
+    <row r="882" spans="3:5">
+      <c r="C882">
+        <v>46</v>
+      </c>
+      <c r="D882">
+        <v>153641</v>
+      </c>
+      <c r="E882">
+        <v>152029</v>
+      </c>
+    </row>
+    <row r="883" spans="3:5">
+      <c r="C883">
+        <v>47</v>
+      </c>
+      <c r="D883">
+        <v>197336</v>
+      </c>
+      <c r="E883">
+        <v>196270</v>
+      </c>
+    </row>
+    <row r="884" spans="3:5">
+      <c r="C884">
+        <v>48</v>
+      </c>
+      <c r="D884">
+        <v>122013</v>
+      </c>
+      <c r="E884">
+        <v>121718</v>
+      </c>
+    </row>
+    <row r="885" spans="3:5">
+      <c r="C885">
+        <v>49</v>
+      </c>
+      <c r="D885">
+        <v>139467</v>
+      </c>
+      <c r="E885">
+        <v>139147</v>
+      </c>
+    </row>
+    <row r="886" spans="3:5">
+      <c r="C886">
+        <v>50</v>
+      </c>
+      <c r="D886">
+        <v>145492</v>
+      </c>
+      <c r="E886">
+        <v>145504</v>
+      </c>
+    </row>
+    <row r="887" spans="3:5">
+      <c r="C887">
+        <v>51</v>
+      </c>
+      <c r="D887">
+        <v>171394</v>
+      </c>
+      <c r="E887">
+        <v>171407</v>
+      </c>
+    </row>
+    <row r="888" spans="3:5">
+      <c r="C888">
+        <v>52</v>
+      </c>
+      <c r="D888">
+        <v>143787</v>
+      </c>
+      <c r="E888">
+        <v>143329</v>
+      </c>
+    </row>
+    <row r="889" spans="3:5">
+      <c r="C889">
+        <v>53</v>
+      </c>
+      <c r="D889">
+        <v>172960</v>
+      </c>
+      <c r="E889">
+        <v>172357</v>
+      </c>
+    </row>
+    <row r="890" spans="3:5">
+      <c r="C890">
+        <v>54</v>
+      </c>
+      <c r="D890">
+        <v>177970</v>
+      </c>
+      <c r="E890">
+        <v>177831</v>
+      </c>
+    </row>
+    <row r="891" spans="3:5">
+      <c r="C891">
+        <v>55</v>
+      </c>
+      <c r="D891">
+        <v>217709</v>
+      </c>
+      <c r="E891">
+        <v>217617</v>
+      </c>
+    </row>
+    <row r="892" spans="3:5">
+      <c r="C892">
+        <v>56</v>
+      </c>
+      <c r="D892">
+        <v>117035</v>
+      </c>
+      <c r="E892">
+        <v>116189</v>
+      </c>
+    </row>
+    <row r="893" spans="3:5">
+      <c r="C893">
+        <v>57</v>
+      </c>
+      <c r="D893">
+        <v>140609</v>
+      </c>
+      <c r="E893">
+        <v>140291</v>
+      </c>
+    </row>
+    <row r="894" spans="3:5">
+      <c r="C894">
+        <v>58</v>
+      </c>
+      <c r="D894">
+        <v>138422</v>
+      </c>
+      <c r="E894">
+        <v>137686</v>
+      </c>
+    </row>
+    <row r="895" spans="3:5">
+      <c r="C895">
+        <v>59</v>
+      </c>
+      <c r="D895">
+        <v>173159</v>
+      </c>
+      <c r="E895">
+        <v>173160</v>
+      </c>
+    </row>
+    <row r="896" spans="3:5">
+      <c r="C896">
+        <v>60</v>
+      </c>
+      <c r="D896">
+        <v>136912</v>
+      </c>
+      <c r="E896">
+        <v>135765</v>
+      </c>
+    </row>
+    <row r="897" spans="2:5">
+      <c r="C897">
+        <v>61</v>
+      </c>
+      <c r="D897">
+        <v>170609</v>
+      </c>
+      <c r="E897">
+        <v>170192</v>
+      </c>
+    </row>
+    <row r="898" spans="2:5">
+      <c r="C898">
+        <v>62</v>
+      </c>
+      <c r="D898">
+        <v>167557</v>
+      </c>
+      <c r="E898">
+        <v>166256</v>
+      </c>
+    </row>
+    <row r="899" spans="2:5">
+      <c r="C899">
+        <v>63</v>
+      </c>
+      <c r="D899">
+        <v>220506</v>
+      </c>
+      <c r="E899">
+        <v>220544</v>
+      </c>
+    </row>
+    <row r="900" spans="2:5">
+      <c r="B900" t="s">
+        <v>18</v>
+      </c>
+      <c r="C900">
+        <v>0</v>
+      </c>
+      <c r="D900">
+        <v>143037</v>
+      </c>
+      <c r="E900">
+        <v>143677</v>
+      </c>
+    </row>
+    <row r="901" spans="2:5">
+      <c r="C901">
+        <v>1</v>
+      </c>
+      <c r="D901">
+        <v>167213</v>
+      </c>
+      <c r="E901">
+        <v>167607</v>
+      </c>
+    </row>
+    <row r="902" spans="2:5">
+      <c r="C902">
+        <v>2</v>
+      </c>
+      <c r="D902">
+        <v>147607</v>
+      </c>
+      <c r="E902">
+        <v>147851</v>
+      </c>
+    </row>
+    <row r="903" spans="2:5">
+      <c r="C903">
+        <v>3</v>
+      </c>
+      <c r="D903">
+        <v>174224</v>
+      </c>
+      <c r="E903">
+        <v>174116</v>
+      </c>
+    </row>
+    <row r="904" spans="2:5">
+      <c r="C904">
+        <v>4</v>
+      </c>
+      <c r="D904">
+        <v>167415</v>
+      </c>
+      <c r="E904">
+        <v>168973</v>
+      </c>
+    </row>
+    <row r="905" spans="2:5">
+      <c r="C905">
+        <v>5</v>
+      </c>
+      <c r="D905">
+        <v>202328</v>
+      </c>
+      <c r="E905">
+        <v>203834</v>
+      </c>
+    </row>
+    <row r="906" spans="2:5">
+      <c r="C906">
+        <v>6</v>
+      </c>
+      <c r="D906">
+        <v>174511</v>
+      </c>
+      <c r="E906">
+        <v>175498</v>
+      </c>
+    </row>
+    <row r="907" spans="2:5">
+      <c r="C907">
+        <v>7</v>
+      </c>
+      <c r="D907">
+        <v>212807</v>
+      </c>
+      <c r="E907">
+        <v>213586</v>
+      </c>
+    </row>
+    <row r="908" spans="2:5">
+      <c r="C908">
+        <v>8</v>
+      </c>
+      <c r="D908">
+        <v>134927</v>
+      </c>
+      <c r="E908">
+        <v>135592</v>
+      </c>
+    </row>
+    <row r="909" spans="2:5">
+      <c r="C909">
+        <v>9</v>
+      </c>
+      <c r="D909">
+        <v>168796</v>
+      </c>
+      <c r="E909">
+        <v>169357</v>
+      </c>
+    </row>
+    <row r="910" spans="2:5">
+      <c r="C910">
+        <v>10</v>
+      </c>
+      <c r="D910">
+        <v>139541</v>
+      </c>
+      <c r="E910">
+        <v>139598</v>
+      </c>
+    </row>
+    <row r="911" spans="2:5">
+      <c r="C911">
+        <v>11</v>
+      </c>
+      <c r="D911">
+        <v>176081</v>
+      </c>
+      <c r="E911">
+        <v>176018</v>
+      </c>
+    </row>
+    <row r="912" spans="2:5">
+      <c r="C912">
+        <v>12</v>
+      </c>
+      <c r="D912">
+        <v>157208</v>
+      </c>
+      <c r="E912">
+        <v>158259</v>
+      </c>
+    </row>
+    <row r="913" spans="3:5">
+      <c r="C913">
+        <v>13</v>
+      </c>
+      <c r="D913">
+        <v>204588</v>
+      </c>
+      <c r="E913">
+        <v>206525</v>
+      </c>
+    </row>
+    <row r="914" spans="3:5">
+      <c r="C914">
+        <v>14</v>
+      </c>
+      <c r="D914">
+        <v>163426</v>
+      </c>
+      <c r="E914">
+        <v>164323</v>
+      </c>
+    </row>
+    <row r="915" spans="3:5">
+      <c r="C915">
+        <v>15</v>
+      </c>
+      <c r="D915">
+        <v>215535</v>
+      </c>
+      <c r="E915">
+        <v>216594</v>
+      </c>
+    </row>
+    <row r="916" spans="3:5">
+      <c r="C916">
+        <v>16</v>
+      </c>
+      <c r="D916">
+        <v>132149</v>
+      </c>
+      <c r="E916">
+        <v>132417</v>
+      </c>
+    </row>
+    <row r="917" spans="3:5">
+      <c r="C917">
+        <v>17</v>
+      </c>
+      <c r="D917">
+        <v>153132</v>
+      </c>
+      <c r="E917">
+        <v>153149</v>
+      </c>
+    </row>
+    <row r="918" spans="3:5">
+      <c r="C918">
+        <v>18</v>
+      </c>
+      <c r="D918">
+        <v>160974</v>
+      </c>
+      <c r="E918">
+        <v>161250</v>
+      </c>
+    </row>
+    <row r="919" spans="3:5">
+      <c r="C919">
+        <v>19</v>
+      </c>
+      <c r="D919">
+        <v>216532</v>
+      </c>
+      <c r="E919">
+        <v>216262</v>
+      </c>
+    </row>
+    <row r="920" spans="3:5">
+      <c r="C920">
+        <v>20</v>
+      </c>
+      <c r="D920">
+        <v>153433</v>
+      </c>
+      <c r="E920">
+        <v>154364</v>
+      </c>
+    </row>
+    <row r="921" spans="3:5">
+      <c r="C921">
+        <v>21</v>
+      </c>
+      <c r="D921">
+        <v>182401</v>
+      </c>
+      <c r="E921">
+        <v>183152</v>
+      </c>
+    </row>
+    <row r="922" spans="3:5">
+      <c r="C922">
+        <v>22</v>
+      </c>
+      <c r="D922">
+        <v>193527</v>
+      </c>
+      <c r="E922">
+        <v>194859</v>
+      </c>
+    </row>
+    <row r="923" spans="3:5">
+      <c r="C923">
+        <v>23</v>
+      </c>
+      <c r="D923">
+        <v>182431</v>
+      </c>
+      <c r="E923">
+        <v>183137</v>
+      </c>
+    </row>
+    <row r="924" spans="3:5">
+      <c r="C924">
+        <v>24</v>
+      </c>
+      <c r="D924">
+        <v>125643</v>
+      </c>
+      <c r="E924">
+        <v>125792</v>
+      </c>
+    </row>
+    <row r="925" spans="3:5">
+      <c r="C925">
+        <v>25</v>
+      </c>
+      <c r="D925">
+        <v>154493</v>
+      </c>
+      <c r="E925">
+        <v>154680</v>
+      </c>
+    </row>
+    <row r="926" spans="3:5">
+      <c r="C926">
+        <v>26</v>
+      </c>
+      <c r="D926">
+        <v>151305</v>
+      </c>
+      <c r="E926">
+        <v>151296</v>
+      </c>
+    </row>
+    <row r="927" spans="3:5">
+      <c r="C927">
+        <v>27</v>
+      </c>
+      <c r="D927">
+        <v>195400</v>
+      </c>
+      <c r="E927">
+        <v>195420</v>
+      </c>
+    </row>
+    <row r="928" spans="3:5">
+      <c r="C928">
+        <v>28</v>
+      </c>
+      <c r="D928">
+        <v>172085</v>
+      </c>
+      <c r="E928">
+        <v>173082</v>
+      </c>
+    </row>
+    <row r="929" spans="3:5">
+      <c r="C929">
+        <v>29</v>
+      </c>
+      <c r="D929">
+        <v>184468</v>
+      </c>
+      <c r="E929">
+        <v>185309</v>
+      </c>
+    </row>
+    <row r="930" spans="3:5">
+      <c r="C930">
+        <v>30</v>
+      </c>
+      <c r="D930">
+        <v>180022</v>
+      </c>
+      <c r="E930">
+        <v>180795</v>
+      </c>
+    </row>
+    <row r="931" spans="3:5">
+      <c r="C931">
+        <v>31</v>
+      </c>
+      <c r="D931">
+        <v>245234</v>
+      </c>
+      <c r="E931">
+        <v>246718</v>
+      </c>
+    </row>
+    <row r="932" spans="3:5">
+      <c r="C932">
+        <v>32</v>
+      </c>
+      <c r="D932">
+        <v>130175</v>
+      </c>
+      <c r="E932">
+        <v>131022</v>
+      </c>
+    </row>
+    <row r="933" spans="3:5">
+      <c r="C933">
+        <v>33</v>
+      </c>
+      <c r="D933">
+        <v>150576</v>
+      </c>
+      <c r="E933">
+        <v>151197</v>
+      </c>
+    </row>
+    <row r="934" spans="3:5">
+      <c r="C934">
+        <v>34</v>
+      </c>
+      <c r="D934">
+        <v>134439</v>
+      </c>
+      <c r="E934">
+        <v>134895</v>
+      </c>
+    </row>
+    <row r="935" spans="3:5">
+      <c r="C935">
+        <v>35</v>
+      </c>
+      <c r="D935">
+        <v>156246</v>
+      </c>
+      <c r="E935">
+        <v>156452</v>
+      </c>
+    </row>
+    <row r="936" spans="3:5">
+      <c r="C936">
+        <v>36</v>
+      </c>
+      <c r="D936">
+        <v>155445</v>
+      </c>
+      <c r="E936">
+        <v>157678</v>
+      </c>
+    </row>
+    <row r="937" spans="3:5">
+      <c r="C937">
+        <v>37</v>
+      </c>
+      <c r="D937">
+        <v>185288</v>
+      </c>
+      <c r="E937">
+        <v>187625</v>
+      </c>
+    </row>
+    <row r="938" spans="3:5">
+      <c r="C938">
+        <v>38</v>
+      </c>
+      <c r="D938">
+        <v>161491</v>
+      </c>
+      <c r="E938">
+        <v>163245</v>
+      </c>
+    </row>
+    <row r="939" spans="3:5">
+      <c r="C939">
+        <v>39</v>
+      </c>
+      <c r="D939">
+        <v>193889</v>
+      </c>
+      <c r="E939">
+        <v>195687</v>
+      </c>
+    </row>
+    <row r="940" spans="3:5">
+      <c r="C940">
+        <v>40</v>
+      </c>
+      <c r="D940">
+        <v>123901</v>
+      </c>
+      <c r="E940">
+        <v>124504</v>
+      </c>
+    </row>
+    <row r="941" spans="3:5">
+      <c r="C941">
+        <v>41</v>
+      </c>
+      <c r="D941">
+        <v>151835</v>
+      </c>
+      <c r="E941">
+        <v>152746</v>
+      </c>
+    </row>
+    <row r="942" spans="3:5">
+      <c r="C942">
+        <v>42</v>
+      </c>
+      <c r="D942">
+        <v>127794</v>
+      </c>
+      <c r="E942">
+        <v>128101</v>
+      </c>
+    </row>
+    <row r="943" spans="3:5">
+      <c r="C943">
+        <v>43</v>
+      </c>
+      <c r="D943">
+        <v>157803</v>
+      </c>
+      <c r="E943">
+        <v>158138</v>
+      </c>
+    </row>
+    <row r="944" spans="3:5">
+      <c r="C944">
+        <v>44</v>
+      </c>
+      <c r="D944">
+        <v>146499</v>
+      </c>
+      <c r="E944">
+        <v>148535</v>
+      </c>
+    </row>
+    <row r="945" spans="3:5">
+      <c r="C945">
+        <v>45</v>
+      </c>
+      <c r="D945">
+        <v>187315</v>
+      </c>
+      <c r="E945">
+        <v>189992</v>
+      </c>
+    </row>
+    <row r="946" spans="3:5">
+      <c r="C946">
+        <v>46</v>
+      </c>
+      <c r="D946">
+        <v>151989</v>
+      </c>
+      <c r="E946">
+        <v>153384</v>
+      </c>
+    </row>
+    <row r="947" spans="3:5">
+      <c r="C947">
+        <v>47</v>
+      </c>
+      <c r="D947">
+        <v>196156</v>
+      </c>
+      <c r="E947">
+        <v>198295</v>
+      </c>
+    </row>
+    <row r="948" spans="3:5">
+      <c r="C948">
+        <v>48</v>
+      </c>
+      <c r="D948">
+        <v>121597</v>
+      </c>
+      <c r="E948">
+        <v>122041</v>
+      </c>
+    </row>
+    <row r="949" spans="3:5">
+      <c r="C949">
+        <v>49</v>
+      </c>
+      <c r="D949">
+        <v>139137</v>
+      </c>
+      <c r="E949">
+        <v>139353</v>
+      </c>
+    </row>
+    <row r="950" spans="3:5">
+      <c r="C950">
+        <v>50</v>
+      </c>
+      <c r="D950">
+        <v>145502</v>
+      </c>
+      <c r="E950">
+        <v>146047</v>
+      </c>
+    </row>
+    <row r="951" spans="3:5">
+      <c r="C951">
+        <v>51</v>
+      </c>
+      <c r="D951">
+        <v>171404</v>
+      </c>
+      <c r="E951">
+        <v>171676</v>
+      </c>
+    </row>
+    <row r="952" spans="3:5">
+      <c r="C952">
+        <v>52</v>
+      </c>
+      <c r="D952">
+        <v>143300</v>
+      </c>
+      <c r="E952">
+        <v>144958</v>
+      </c>
+    </row>
+    <row r="953" spans="3:5">
+      <c r="C953">
+        <v>53</v>
+      </c>
+      <c r="D953">
+        <v>168321</v>
+      </c>
+      <c r="E953">
+        <v>169874</v>
+      </c>
+    </row>
+    <row r="954" spans="3:5">
+      <c r="C954">
+        <v>54</v>
+      </c>
+      <c r="D954">
+        <v>177842</v>
+      </c>
+      <c r="E954">
+        <v>179790</v>
+      </c>
+    </row>
+    <row r="955" spans="3:5">
+      <c r="C955">
+        <v>55</v>
+      </c>
+      <c r="D955">
+        <v>217702</v>
+      </c>
+      <c r="E955">
+        <v>219995</v>
+      </c>
+    </row>
+    <row r="956" spans="3:5">
+      <c r="C956">
+        <v>56</v>
+      </c>
+      <c r="D956">
+        <v>116183</v>
+      </c>
+      <c r="E956">
+        <v>116473</v>
+      </c>
+    </row>
+    <row r="957" spans="3:5">
+      <c r="C957">
+        <v>57</v>
+      </c>
+      <c r="D957">
+        <v>140272</v>
+      </c>
+      <c r="E957">
+        <v>140611</v>
+      </c>
+    </row>
+    <row r="958" spans="3:5">
+      <c r="C958">
+        <v>58</v>
+      </c>
+      <c r="D958">
+        <v>137667</v>
+      </c>
+      <c r="E958">
+        <v>138059</v>
+      </c>
+    </row>
+    <row r="959" spans="3:5">
+      <c r="C959">
+        <v>59</v>
+      </c>
+      <c r="D959">
+        <v>173153</v>
+      </c>
+      <c r="E959">
+        <v>173595</v>
+      </c>
+    </row>
+    <row r="960" spans="3:5">
+      <c r="C960">
+        <v>60</v>
+      </c>
+      <c r="D960">
+        <v>135705</v>
+      </c>
+      <c r="E960">
+        <v>136888</v>
+      </c>
+    </row>
+    <row r="961" spans="3:5">
+      <c r="C961">
+        <v>61</v>
+      </c>
+      <c r="D961">
+        <v>170150</v>
+      </c>
+      <c r="E961">
+        <v>171736</v>
+      </c>
+    </row>
+    <row r="962" spans="3:5">
+      <c r="C962">
+        <v>62</v>
+      </c>
+      <c r="D962">
+        <v>166255</v>
+      </c>
+      <c r="E962">
+        <v>167647</v>
+      </c>
+    </row>
+    <row r="963" spans="3:5">
+      <c r="C963">
+        <v>63</v>
+      </c>
+      <c r="D963">
+        <v>220526</v>
+      </c>
+      <c r="E963">
+        <v>223249</v>
       </c>
     </row>
   </sheetData>

--- a/Final Year Project.xlsx
+++ b/Final Year Project.xlsx
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E2115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1473" workbookViewId="0">
-      <selection activeCell="F2111" sqref="F2111"/>
+    <sheetView tabSelected="1" topLeftCell="B1838" workbookViewId="0">
+      <selection activeCell="E1859" sqref="E1859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16801,1938 +16801,4242 @@
       <c r="C1476">
         <v>0</v>
       </c>
+      <c r="D1476">
+        <v>145703</v>
+      </c>
+      <c r="E1476">
+        <v>144198</v>
+      </c>
     </row>
     <row r="1477" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1477">
         <v>1</v>
       </c>
+      <c r="D1477">
+        <v>170263</v>
+      </c>
+      <c r="E1477">
+        <v>168950</v>
+      </c>
     </row>
     <row r="1478" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1478">
         <v>2</v>
       </c>
+      <c r="D1478">
+        <v>150335</v>
+      </c>
+      <c r="E1478">
+        <v>148507</v>
+      </c>
     </row>
     <row r="1479" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1479">
         <v>3</v>
       </c>
+      <c r="D1479">
+        <v>176675</v>
+      </c>
+      <c r="E1479">
+        <v>174819</v>
+      </c>
     </row>
     <row r="1480" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1480">
         <v>4</v>
       </c>
+      <c r="D1480">
+        <v>172277</v>
+      </c>
+      <c r="E1480">
+        <v>170446</v>
+      </c>
     </row>
     <row r="1481" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1481">
         <v>5</v>
       </c>
+      <c r="D1481">
+        <v>207472</v>
+      </c>
+      <c r="E1481">
+        <v>205617</v>
+      </c>
     </row>
     <row r="1482" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1482">
         <v>6</v>
       </c>
+      <c r="D1482">
+        <v>178804</v>
+      </c>
+      <c r="E1482">
+        <v>176410</v>
+      </c>
     </row>
     <row r="1483" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1483">
         <v>7</v>
       </c>
+      <c r="D1483">
+        <v>217033</v>
+      </c>
+      <c r="E1483">
+        <v>214722</v>
+      </c>
     </row>
     <row r="1484" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1484">
         <v>8</v>
       </c>
+      <c r="D1484">
+        <v>137895</v>
+      </c>
+      <c r="E1484">
+        <v>136898</v>
+      </c>
     </row>
     <row r="1485" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1485">
         <v>9</v>
       </c>
+      <c r="D1485">
+        <v>171653</v>
+      </c>
+      <c r="E1485">
+        <v>170064</v>
+      </c>
     </row>
     <row r="1486" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1486">
         <v>10</v>
       </c>
+      <c r="D1486">
+        <v>142056</v>
+      </c>
+      <c r="E1486">
+        <v>140787</v>
+      </c>
     </row>
     <row r="1487" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1487">
         <v>11</v>
       </c>
+      <c r="D1487">
+        <v>184895</v>
+      </c>
+      <c r="E1487">
+        <v>182710</v>
+      </c>
     </row>
     <row r="1488" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1488">
         <v>12</v>
       </c>
-    </row>
-    <row r="1489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1488">
+        <v>161531</v>
+      </c>
+      <c r="E1488">
+        <v>160385</v>
+      </c>
+    </row>
+    <row r="1489" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1489">
         <v>13</v>
       </c>
-    </row>
-    <row r="1490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1489">
+        <v>209581</v>
+      </c>
+      <c r="E1489">
+        <v>207486</v>
+      </c>
+    </row>
+    <row r="1490" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1490">
         <v>14</v>
       </c>
-    </row>
-    <row r="1491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1490">
+        <v>167312</v>
+      </c>
+      <c r="E1490">
+        <v>165709</v>
+      </c>
+    </row>
+    <row r="1491" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1491">
         <v>15</v>
       </c>
-    </row>
-    <row r="1492" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1491">
+        <v>219484</v>
+      </c>
+      <c r="E1491">
+        <v>216705</v>
+      </c>
+    </row>
+    <row r="1492" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1492">
         <v>16</v>
       </c>
-    </row>
-    <row r="1493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1492">
+        <v>134929</v>
+      </c>
+      <c r="E1492">
+        <v>133253</v>
+      </c>
+    </row>
+    <row r="1493" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1493">
         <v>17</v>
       </c>
-    </row>
-    <row r="1494" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1493">
+        <v>155811</v>
+      </c>
+      <c r="E1493">
+        <v>154153</v>
+      </c>
+    </row>
+    <row r="1494" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1494">
         <v>18</v>
       </c>
-    </row>
-    <row r="1495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1494">
+        <v>164222</v>
+      </c>
+      <c r="E1494">
+        <v>161944</v>
+      </c>
+    </row>
+    <row r="1495" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1495">
         <v>19</v>
       </c>
-    </row>
-    <row r="1496" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1495">
+        <v>196172</v>
+      </c>
+      <c r="E1495">
+        <v>193762</v>
+      </c>
+    </row>
+    <row r="1496" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1496">
         <v>20</v>
       </c>
-    </row>
-    <row r="1497" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1496">
+        <v>157604</v>
+      </c>
+      <c r="E1496">
+        <v>155487</v>
+      </c>
+    </row>
+    <row r="1497" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1497">
         <v>21</v>
       </c>
-    </row>
-    <row r="1498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1497">
+        <v>186686</v>
+      </c>
+      <c r="E1497">
+        <v>184485</v>
+      </c>
+    </row>
+    <row r="1498" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1498">
         <v>22</v>
       </c>
-    </row>
-    <row r="1499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1498">
+        <v>198924</v>
+      </c>
+      <c r="E1498">
+        <v>195840</v>
+      </c>
+    </row>
+    <row r="1499" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1499">
         <v>23</v>
       </c>
-    </row>
-    <row r="1500" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1499">
+        <v>247446</v>
+      </c>
+      <c r="E1499">
+        <v>244093</v>
+      </c>
+    </row>
+    <row r="1500" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1500">
         <v>24</v>
       </c>
-    </row>
-    <row r="1501" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1500">
+        <v>128209</v>
+      </c>
+      <c r="E1500">
+        <v>126976</v>
+      </c>
+    </row>
+    <row r="1501" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1501">
         <v>25</v>
       </c>
-    </row>
-    <row r="1502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1501">
+        <v>157042</v>
+      </c>
+      <c r="E1501">
+        <v>155118</v>
+      </c>
+    </row>
+    <row r="1502" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1502">
         <v>26</v>
       </c>
-    </row>
-    <row r="1503" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1502">
+        <v>154357</v>
+      </c>
+      <c r="E1502">
+        <v>152746</v>
+      </c>
+    </row>
+    <row r="1503" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1503">
         <v>27</v>
       </c>
-    </row>
-    <row r="1504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1503">
+        <v>198154</v>
+      </c>
+      <c r="E1503">
+        <v>195400</v>
+      </c>
+    </row>
+    <row r="1504" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1504">
         <v>28</v>
       </c>
-    </row>
-    <row r="1505" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1504">
+        <v>148456</v>
+      </c>
+      <c r="E1504">
+        <v>147002</v>
+      </c>
+    </row>
+    <row r="1505" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1505">
         <v>29</v>
       </c>
-    </row>
-    <row r="1506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1505">
+        <v>188446</v>
+      </c>
+      <c r="E1505">
+        <v>186047</v>
+      </c>
+    </row>
+    <row r="1506" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1506">
         <v>30</v>
       </c>
-    </row>
-    <row r="1507" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1506">
+        <v>184764</v>
+      </c>
+      <c r="E1506">
+        <v>182702</v>
+      </c>
+    </row>
+    <row r="1507" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1507">
         <v>31</v>
       </c>
-    </row>
-    <row r="1508" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1507">
+        <v>250480</v>
+      </c>
+      <c r="E1507">
+        <v>246636</v>
+      </c>
+    </row>
+    <row r="1508" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1508">
         <v>32</v>
       </c>
-    </row>
-    <row r="1509" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1508">
+        <v>134769</v>
+      </c>
+      <c r="E1508">
+        <v>133205</v>
+      </c>
+    </row>
+    <row r="1509" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1509">
         <v>33</v>
       </c>
-    </row>
-    <row r="1510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1509">
+        <v>155516</v>
+      </c>
+      <c r="E1509">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="1510" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1510">
         <v>34</v>
       </c>
-    </row>
-    <row r="1511" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1510">
+        <v>138717</v>
+      </c>
+      <c r="E1510">
+        <v>136860</v>
+      </c>
+    </row>
+    <row r="1511" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1511">
         <v>35</v>
       </c>
-    </row>
-    <row r="1512" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1511">
+        <v>161025</v>
+      </c>
+      <c r="E1511">
+        <v>159105</v>
+      </c>
+    </row>
+    <row r="1512" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1512">
         <v>36</v>
       </c>
-    </row>
-    <row r="1513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1512">
+        <v>161483</v>
+      </c>
+      <c r="E1512">
+        <v>159023</v>
+      </c>
+    </row>
+    <row r="1513" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1513">
         <v>37</v>
       </c>
-    </row>
-    <row r="1514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1513">
+        <v>192204</v>
+      </c>
+      <c r="E1513">
+        <v>189628</v>
+      </c>
+    </row>
+    <row r="1514" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1514">
         <v>38</v>
       </c>
-    </row>
-    <row r="1515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1514">
+        <v>167177</v>
+      </c>
+      <c r="E1514">
+        <v>164283</v>
+      </c>
+    </row>
+    <row r="1515" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1515">
         <v>39</v>
       </c>
-    </row>
-    <row r="1516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1515">
+        <v>200296</v>
+      </c>
+      <c r="E1515">
+        <v>197105</v>
+      </c>
+    </row>
+    <row r="1516" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1516">
         <v>40</v>
       </c>
-    </row>
-    <row r="1517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1516">
+        <v>127995</v>
+      </c>
+      <c r="E1516">
+        <v>126885</v>
+      </c>
+    </row>
+    <row r="1517" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1517">
         <v>41</v>
       </c>
-    </row>
-    <row r="1518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1517">
+        <v>156709</v>
+      </c>
+      <c r="E1517">
+        <v>155018</v>
+      </c>
+    </row>
+    <row r="1518" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1518">
         <v>42</v>
       </c>
-    </row>
-    <row r="1519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1518">
+        <v>131651</v>
+      </c>
+      <c r="E1518">
+        <v>130264</v>
+      </c>
+    </row>
+    <row r="1519" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1519">
         <v>43</v>
       </c>
-    </row>
-    <row r="1520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1519">
+        <v>162171</v>
+      </c>
+      <c r="E1519">
+        <v>160088</v>
+      </c>
+    </row>
+    <row r="1520" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1520">
         <v>44</v>
       </c>
-    </row>
-    <row r="1521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1520">
+        <v>125605</v>
+      </c>
+      <c r="E1520">
+        <v>123869</v>
+      </c>
+    </row>
+    <row r="1521" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1521">
         <v>45</v>
       </c>
-    </row>
-    <row r="1522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1521">
+        <v>194012</v>
+      </c>
+      <c r="E1521">
+        <v>191196</v>
+      </c>
+    </row>
+    <row r="1522" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1522">
         <v>46</v>
       </c>
-    </row>
-    <row r="1523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1522">
+        <v>157067</v>
+      </c>
+      <c r="E1522">
+        <v>154949</v>
+      </c>
+    </row>
+    <row r="1523" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1523">
         <v>47</v>
       </c>
-    </row>
-    <row r="1524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1523">
+        <v>200097</v>
+      </c>
+      <c r="E1523">
+        <v>197155</v>
+      </c>
+    </row>
+    <row r="1524" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1524">
         <v>48</v>
       </c>
-    </row>
-    <row r="1525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1524">
+        <v>125565</v>
+      </c>
+      <c r="E1524">
+        <v>123847</v>
+      </c>
+    </row>
+    <row r="1525" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1525">
         <v>49</v>
       </c>
-    </row>
-    <row r="1526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1525">
+        <v>143476</v>
+      </c>
+      <c r="E1525">
+        <v>141717</v>
+      </c>
+    </row>
+    <row r="1526" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1526">
         <v>50</v>
       </c>
-    </row>
-    <row r="1527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1526">
+        <v>150611</v>
+      </c>
+      <c r="E1526">
+        <v>148300</v>
+      </c>
+    </row>
+    <row r="1527" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1527">
         <v>51</v>
       </c>
-    </row>
-    <row r="1528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1527">
+        <v>177129</v>
+      </c>
+      <c r="E1527">
+        <v>174614</v>
+      </c>
+    </row>
+    <row r="1528" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1528">
         <v>52</v>
       </c>
-    </row>
-    <row r="1529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1528">
+        <v>148941</v>
+      </c>
+      <c r="E1528">
+        <v>145938</v>
+      </c>
+    </row>
+    <row r="1529" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1529">
         <v>53</v>
       </c>
-    </row>
-    <row r="1530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1529">
+        <v>174142</v>
+      </c>
+      <c r="E1529">
+        <v>171359</v>
+      </c>
+    </row>
+    <row r="1530" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1530">
         <v>54</v>
       </c>
-    </row>
-    <row r="1531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1530">
+        <v>184742</v>
+      </c>
+      <c r="E1530">
+        <v>181063</v>
+      </c>
+    </row>
+    <row r="1531" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1531">
         <v>55</v>
       </c>
-    </row>
-    <row r="1532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1531">
+        <v>225948</v>
+      </c>
+      <c r="E1531">
+        <v>221684</v>
+      </c>
+    </row>
+    <row r="1532" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1532">
         <v>56</v>
       </c>
-    </row>
-    <row r="1533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1532">
+        <v>119880</v>
+      </c>
+      <c r="E1532">
+        <v>118560</v>
+      </c>
+    </row>
+    <row r="1533" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1533">
         <v>57</v>
       </c>
-    </row>
-    <row r="1534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1533">
+        <v>144502</v>
+      </c>
+      <c r="E1533">
+        <v>142564</v>
+      </c>
+    </row>
+    <row r="1534" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1534">
         <v>58</v>
       </c>
-    </row>
-    <row r="1535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1534">
+        <v>142334</v>
+      </c>
+      <c r="E1534">
+        <v>140599</v>
+      </c>
+    </row>
+    <row r="1535" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1535">
         <v>59</v>
       </c>
-    </row>
-    <row r="1536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1535">
+        <v>198026</v>
+      </c>
+      <c r="E1535">
+        <v>195219</v>
+      </c>
+    </row>
+    <row r="1536" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1536">
         <v>60</v>
       </c>
-    </row>
-    <row r="1537" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1536">
+        <v>148471</v>
+      </c>
+      <c r="E1536">
+        <v>145905</v>
+      </c>
+    </row>
+    <row r="1537" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1537">
         <v>61</v>
       </c>
-    </row>
-    <row r="1538" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1537">
+        <v>174138</v>
+      </c>
+      <c r="E1537">
+        <v>171276</v>
+      </c>
+    </row>
+    <row r="1538" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1538">
         <v>62</v>
       </c>
-    </row>
-    <row r="1539" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1538">
+        <v>172459</v>
+      </c>
+      <c r="E1538">
+        <v>169176</v>
+      </c>
+    </row>
+    <row r="1539" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1539">
         <v>63</v>
       </c>
-    </row>
-    <row r="1540" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1539">
+        <v>228556</v>
+      </c>
+      <c r="E1539">
+        <v>223815</v>
+      </c>
+    </row>
+    <row r="1540" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1540" t="s">
         <v>28</v>
       </c>
       <c r="C1540">
         <v>0</v>
       </c>
-    </row>
-    <row r="1541" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1540">
+        <v>143974</v>
+      </c>
+      <c r="E1540">
+        <v>143954</v>
+      </c>
+    </row>
+    <row r="1541" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1541">
         <v>1</v>
       </c>
-    </row>
-    <row r="1542" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1541">
+        <v>168867</v>
+      </c>
+      <c r="E1541">
+        <v>167946</v>
+      </c>
+    </row>
+    <row r="1542" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1542">
         <v>2</v>
       </c>
-    </row>
-    <row r="1543" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1542">
+        <v>148277</v>
+      </c>
+      <c r="E1542">
+        <v>149453</v>
+      </c>
+    </row>
+    <row r="1543" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1543">
         <v>3</v>
       </c>
-    </row>
-    <row r="1544" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1543">
+        <v>174597</v>
+      </c>
+      <c r="E1543">
+        <v>175573</v>
+      </c>
+    </row>
+    <row r="1544" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1544">
         <v>4</v>
       </c>
-    </row>
-    <row r="1545" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1544">
+        <v>170155</v>
+      </c>
+      <c r="E1544">
+        <v>169908</v>
+      </c>
+    </row>
+    <row r="1545" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1545">
         <v>5</v>
       </c>
-    </row>
-    <row r="1546" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1545">
+        <v>205536</v>
+      </c>
+      <c r="E1545">
+        <v>203988</v>
+      </c>
+    </row>
+    <row r="1546" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1546">
         <v>6</v>
       </c>
-    </row>
-    <row r="1547" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1546">
+        <v>176218</v>
+      </c>
+      <c r="E1546">
+        <v>177629</v>
+      </c>
+    </row>
+    <row r="1547" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1547">
         <v>7</v>
       </c>
-    </row>
-    <row r="1548" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1547">
+        <v>214421</v>
+      </c>
+      <c r="E1547">
+        <v>215516</v>
+      </c>
+    </row>
+    <row r="1548" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1548">
         <v>8</v>
       </c>
-    </row>
-    <row r="1549" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1548">
+        <v>136729</v>
+      </c>
+      <c r="E1548">
+        <v>136332</v>
+      </c>
+    </row>
+    <row r="1549" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1549">
         <v>9</v>
       </c>
-    </row>
-    <row r="1550" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1549">
+        <v>169798</v>
+      </c>
+      <c r="E1549">
+        <v>169410</v>
+      </c>
+    </row>
+    <row r="1550" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1550">
         <v>10</v>
       </c>
-    </row>
-    <row r="1551" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1550">
+        <v>140837</v>
+      </c>
+      <c r="E1550">
+        <v>141559</v>
+      </c>
+    </row>
+    <row r="1551" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1551">
         <v>11</v>
       </c>
-    </row>
-    <row r="1552" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1551">
+        <v>175894</v>
+      </c>
+      <c r="E1551">
+        <v>177298</v>
+      </c>
+    </row>
+    <row r="1552" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1552">
         <v>12</v>
       </c>
-    </row>
-    <row r="1553" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1552">
+        <v>160191</v>
+      </c>
+      <c r="E1552">
+        <v>159409</v>
+      </c>
+    </row>
+    <row r="1553" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1553">
         <v>13</v>
       </c>
-    </row>
-    <row r="1554" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1553">
+        <v>207274</v>
+      </c>
+      <c r="E1553">
+        <v>206351</v>
+      </c>
+    </row>
+    <row r="1554" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1554">
         <v>14</v>
       </c>
-    </row>
-    <row r="1555" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1554">
+        <v>165486</v>
+      </c>
+      <c r="E1554">
+        <v>166249</v>
+      </c>
+    </row>
+    <row r="1555" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1555">
         <v>15</v>
       </c>
-    </row>
-    <row r="1556" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1555">
+        <v>216440</v>
+      </c>
+      <c r="E1555">
+        <v>218161</v>
+      </c>
+    </row>
+    <row r="1556" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1556">
         <v>16</v>
       </c>
-    </row>
-    <row r="1557" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1556">
+        <v>133133</v>
+      </c>
+      <c r="E1556">
+        <v>133856</v>
+      </c>
+    </row>
+    <row r="1557" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1557">
         <v>17</v>
       </c>
-    </row>
-    <row r="1558" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1557">
+        <v>154474</v>
+      </c>
+      <c r="E1557">
+        <v>154884</v>
+      </c>
+    </row>
+    <row r="1558" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1558">
         <v>18</v>
       </c>
-    </row>
-    <row r="1559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1558">
+        <v>163583</v>
+      </c>
+      <c r="E1558">
+        <v>164706</v>
+      </c>
+    </row>
+    <row r="1559" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1559">
         <v>19</v>
       </c>
-    </row>
-    <row r="1560" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1559">
+        <v>193574</v>
+      </c>
+      <c r="E1559">
+        <v>194403</v>
+      </c>
+    </row>
+    <row r="1560" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1560">
         <v>20</v>
       </c>
-    </row>
-    <row r="1561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1560">
+        <v>155304</v>
+      </c>
+      <c r="E1560">
+        <v>156053</v>
+      </c>
+    </row>
+    <row r="1561" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1561">
         <v>21</v>
       </c>
-    </row>
-    <row r="1562" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1561">
+        <v>184274</v>
+      </c>
+      <c r="E1561">
+        <v>184707</v>
+      </c>
+    </row>
+    <row r="1562" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1562">
         <v>22</v>
       </c>
-    </row>
-    <row r="1563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1562">
+        <v>195722</v>
+      </c>
+      <c r="E1562">
+        <v>197021</v>
+      </c>
+    </row>
+    <row r="1563" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1563">
         <v>23</v>
       </c>
-    </row>
-    <row r="1564" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1563">
+        <v>243847</v>
+      </c>
+      <c r="E1563">
+        <v>244553</v>
+      </c>
+    </row>
+    <row r="1564" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1564">
         <v>24</v>
       </c>
-    </row>
-    <row r="1565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1564">
+        <v>126903</v>
+      </c>
+      <c r="E1564">
+        <v>127262</v>
+      </c>
+    </row>
+    <row r="1565" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1565">
         <v>25</v>
       </c>
-    </row>
-    <row r="1566" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1565">
+        <v>170568</v>
+      </c>
+      <c r="E1565">
+        <v>171337</v>
+      </c>
+    </row>
+    <row r="1566" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1566">
         <v>26</v>
       </c>
-    </row>
-    <row r="1567" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1566">
+        <v>152556</v>
+      </c>
+      <c r="E1566">
+        <v>153278</v>
+      </c>
+    </row>
+    <row r="1567" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1567">
         <v>27</v>
       </c>
-    </row>
-    <row r="1568" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1567">
+        <v>195231</v>
+      </c>
+      <c r="E1567">
+        <v>196522</v>
+      </c>
+    </row>
+    <row r="1568" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1568">
         <v>28</v>
       </c>
-    </row>
-    <row r="1569" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1568">
+        <v>146885</v>
+      </c>
+      <c r="E1568">
+        <v>147221</v>
+      </c>
+    </row>
+    <row r="1569" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1569">
         <v>29</v>
       </c>
-    </row>
-    <row r="1570" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1569">
+        <v>185929</v>
+      </c>
+      <c r="E1569">
+        <v>186762</v>
+      </c>
+    </row>
+    <row r="1570" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1570">
         <v>30</v>
       </c>
-    </row>
-    <row r="1571" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1570">
+        <v>182582</v>
+      </c>
+      <c r="E1570">
+        <v>183220</v>
+      </c>
+    </row>
+    <row r="1571" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1571">
         <v>31</v>
       </c>
-    </row>
-    <row r="1572" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1571">
+        <v>252072</v>
+      </c>
+      <c r="E1571">
+        <v>253773</v>
+      </c>
+    </row>
+    <row r="1572" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1572">
         <v>32</v>
       </c>
-    </row>
-    <row r="1573" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1572">
+        <v>133106</v>
+      </c>
+      <c r="E1572">
+        <v>132246</v>
+      </c>
+    </row>
+    <row r="1573" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1573">
         <v>33</v>
       </c>
-    </row>
-    <row r="1574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1573">
+        <v>166964</v>
+      </c>
+      <c r="E1573">
+        <v>165217</v>
+      </c>
+    </row>
+    <row r="1574" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1574">
         <v>34</v>
       </c>
-    </row>
-    <row r="1575" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1574">
+        <v>137413</v>
+      </c>
+      <c r="E1574">
+        <v>137571</v>
+      </c>
+    </row>
+    <row r="1575" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1575">
         <v>35</v>
       </c>
-    </row>
-    <row r="1576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1575">
+        <v>158857</v>
+      </c>
+      <c r="E1575">
+        <v>158572</v>
+      </c>
+    </row>
+    <row r="1576" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1576">
         <v>36</v>
       </c>
-    </row>
-    <row r="1577" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1576">
+        <v>158974</v>
+      </c>
+      <c r="E1576">
+        <v>158013</v>
+      </c>
+    </row>
+    <row r="1577" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1577">
         <v>37</v>
       </c>
-    </row>
-    <row r="1578" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1577">
+        <v>189541</v>
+      </c>
+      <c r="E1577">
+        <v>187493</v>
+      </c>
+    </row>
+    <row r="1578" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1578">
         <v>38</v>
       </c>
-    </row>
-    <row r="1579" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1578">
+        <v>164165</v>
+      </c>
+      <c r="E1578">
+        <v>164780</v>
+      </c>
+    </row>
+    <row r="1579" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1579">
         <v>39</v>
       </c>
-    </row>
-    <row r="1580" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1579">
+        <v>197006</v>
+      </c>
+      <c r="E1579">
+        <v>196997</v>
+      </c>
+    </row>
+    <row r="1580" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1580">
         <v>40</v>
       </c>
-    </row>
-    <row r="1581" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1580">
+        <v>126856</v>
+      </c>
+      <c r="E1580">
+        <v>125823</v>
+      </c>
+    </row>
+    <row r="1581" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1581">
         <v>41</v>
       </c>
-    </row>
-    <row r="1582" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1581">
+        <v>154905</v>
+      </c>
+      <c r="E1581">
+        <v>153562</v>
+      </c>
+    </row>
+    <row r="1582" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1582">
         <v>42</v>
       </c>
-    </row>
-    <row r="1583" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1582">
+        <v>130206</v>
+      </c>
+      <c r="E1582">
+        <v>130084</v>
+      </c>
+    </row>
+    <row r="1583" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1583">
         <v>43</v>
       </c>
-    </row>
-    <row r="1584" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1583">
+        <v>160004</v>
+      </c>
+      <c r="E1583">
+        <v>160019</v>
+      </c>
+    </row>
+    <row r="1584" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1584">
         <v>44</v>
       </c>
-    </row>
-    <row r="1585" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1584">
+        <v>197013</v>
+      </c>
+      <c r="E1584">
+        <v>196965</v>
+      </c>
+    </row>
+    <row r="1585" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1585">
         <v>45</v>
       </c>
-    </row>
-    <row r="1586" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1585">
+        <v>155303</v>
+      </c>
+      <c r="E1585">
+        <v>153930</v>
+      </c>
+    </row>
+    <row r="1586" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1586">
         <v>46</v>
       </c>
-    </row>
-    <row r="1587" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1586">
+        <v>130203</v>
+      </c>
+      <c r="E1586">
+        <v>130074</v>
+      </c>
+    </row>
+    <row r="1587" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1587">
         <v>47</v>
       </c>
-    </row>
-    <row r="1588" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1587">
+        <v>198597</v>
+      </c>
+      <c r="E1587">
+        <v>199067</v>
+      </c>
+    </row>
+    <row r="1588" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1588">
         <v>48</v>
       </c>
-    </row>
-    <row r="1589" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1588">
+        <v>174514</v>
+      </c>
+      <c r="E1588">
+        <v>173839</v>
+      </c>
+    </row>
+    <row r="1589" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1589">
         <v>49</v>
       </c>
-    </row>
-    <row r="1590" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1589">
+        <v>141602</v>
+      </c>
+      <c r="E1589">
+        <v>141077</v>
+      </c>
+    </row>
+    <row r="1590" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1590">
         <v>50</v>
       </c>
-    </row>
-    <row r="1591" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1590">
+        <v>148188</v>
+      </c>
+      <c r="E1590">
+        <v>148124</v>
+      </c>
+    </row>
+    <row r="1591" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1591">
         <v>51</v>
       </c>
-    </row>
-    <row r="1592" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1591">
+        <v>174536</v>
+      </c>
+      <c r="E1591">
+        <v>173885</v>
+      </c>
+    </row>
+    <row r="1592" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1592">
         <v>52</v>
       </c>
-    </row>
-    <row r="1593" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1592">
+        <v>148190</v>
+      </c>
+      <c r="E1592">
+        <v>148149</v>
+      </c>
+    </row>
+    <row r="1593" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1593">
         <v>53</v>
       </c>
-    </row>
-    <row r="1594" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1593">
+        <v>189472</v>
+      </c>
+      <c r="E1593">
+        <v>187408</v>
+      </c>
+    </row>
+    <row r="1594" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1594">
         <v>54</v>
       </c>
-    </row>
-    <row r="1595" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1594">
+        <v>181023</v>
+      </c>
+      <c r="E1594">
+        <v>181230</v>
+      </c>
+    </row>
+    <row r="1595" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1595">
         <v>55</v>
       </c>
-    </row>
-    <row r="1596" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1595">
+        <v>221562</v>
+      </c>
+      <c r="E1595">
+        <v>220903</v>
+      </c>
+    </row>
+    <row r="1596" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1596">
         <v>56</v>
       </c>
-    </row>
-    <row r="1597" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1596">
+        <v>136653</v>
+      </c>
+      <c r="E1596">
+        <v>136272</v>
+      </c>
+    </row>
+    <row r="1597" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1597">
         <v>57</v>
       </c>
-    </row>
-    <row r="1598" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1597">
+        <v>142502</v>
+      </c>
+      <c r="E1597">
+        <v>142232</v>
+      </c>
+    </row>
+    <row r="1598" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1598">
         <v>58</v>
       </c>
-    </row>
-    <row r="1599" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1598">
+        <v>148213</v>
+      </c>
+      <c r="E1598">
+        <v>148201</v>
+      </c>
+    </row>
+    <row r="1599" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1599">
         <v>59</v>
       </c>
-    </row>
-    <row r="1600" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1599">
+        <v>175822</v>
+      </c>
+      <c r="E1599">
+        <v>175537</v>
+      </c>
+    </row>
+    <row r="1600" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1600">
         <v>60</v>
       </c>
-    </row>
-    <row r="1601" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1600">
+        <v>138452</v>
+      </c>
+      <c r="E1600">
+        <v>135255</v>
+      </c>
+    </row>
+    <row r="1601" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1601">
         <v>61</v>
       </c>
-    </row>
-    <row r="1602" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1601">
+        <v>172587</v>
+      </c>
+      <c r="E1601">
+        <v>172499</v>
+      </c>
+    </row>
+    <row r="1602" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1602">
         <v>62</v>
       </c>
-    </row>
-    <row r="1603" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1602">
+        <v>180973</v>
+      </c>
+      <c r="E1602">
+        <v>181270</v>
+      </c>
+    </row>
+    <row r="1603" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1603">
         <v>63</v>
       </c>
-    </row>
-    <row r="1604" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1603">
+        <v>221539</v>
+      </c>
+      <c r="E1603">
+        <v>221008</v>
+      </c>
+    </row>
+    <row r="1604" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1604" t="s">
         <v>29</v>
       </c>
       <c r="C1604">
         <v>0</v>
       </c>
-    </row>
-    <row r="1605" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1604">
+        <v>143824</v>
+      </c>
+      <c r="E1604">
+        <v>143430</v>
+      </c>
+    </row>
+    <row r="1605" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1605">
         <v>1</v>
       </c>
-    </row>
-    <row r="1606" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1605">
+        <v>167851</v>
+      </c>
+      <c r="E1605">
+        <v>168119</v>
+      </c>
+    </row>
+    <row r="1606" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1606">
         <v>2</v>
       </c>
-    </row>
-    <row r="1607" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1606">
+        <v>149403</v>
+      </c>
+      <c r="E1606">
+        <v>148612</v>
+      </c>
+    </row>
+    <row r="1607" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1607">
         <v>3</v>
       </c>
-    </row>
-    <row r="1608" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1607">
+        <v>175477</v>
+      </c>
+      <c r="E1607">
+        <v>175285</v>
+      </c>
+    </row>
+    <row r="1608" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1608">
         <v>4</v>
       </c>
-    </row>
-    <row r="1609" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1608">
+        <v>169742</v>
+      </c>
+      <c r="E1608">
+        <v>169358</v>
+      </c>
+    </row>
+    <row r="1609" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1609">
         <v>5</v>
       </c>
-    </row>
-    <row r="1610" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1609">
+        <v>203975</v>
+      </c>
+      <c r="E1609">
+        <v>204769</v>
+      </c>
+    </row>
+    <row r="1610" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1610">
         <v>6</v>
       </c>
-    </row>
-    <row r="1611" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1610">
+        <v>177498</v>
+      </c>
+      <c r="E1610">
+        <v>176667</v>
+      </c>
+    </row>
+    <row r="1611" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1611">
         <v>7</v>
       </c>
-    </row>
-    <row r="1612" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1611">
+        <v>215404</v>
+      </c>
+      <c r="E1611">
+        <v>215418</v>
+      </c>
+    </row>
+    <row r="1612" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1612">
         <v>8</v>
       </c>
-    </row>
-    <row r="1613" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1612">
+        <v>140375</v>
+      </c>
+      <c r="E1612">
+        <v>140405</v>
+      </c>
+    </row>
+    <row r="1613" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1613">
         <v>9</v>
       </c>
-    </row>
-    <row r="1614" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1613">
+        <v>169307</v>
+      </c>
+      <c r="E1613">
+        <v>169348</v>
+      </c>
+    </row>
+    <row r="1614" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1614">
         <v>10</v>
       </c>
-    </row>
-    <row r="1615" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1614">
+        <v>141214</v>
+      </c>
+      <c r="E1614">
+        <v>141007</v>
+      </c>
+    </row>
+    <row r="1615" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1615">
         <v>11</v>
       </c>
-    </row>
-    <row r="1616" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1615">
+        <v>178340</v>
+      </c>
+      <c r="E1615">
+        <v>177829</v>
+      </c>
+    </row>
+    <row r="1616" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1616">
         <v>12</v>
       </c>
-    </row>
-    <row r="1617" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1616">
+        <v>159320</v>
+      </c>
+      <c r="E1616">
+        <v>159606</v>
+      </c>
+    </row>
+    <row r="1617" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1617">
         <v>13</v>
       </c>
-    </row>
-    <row r="1618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1617">
+        <v>206242</v>
+      </c>
+      <c r="E1617">
+        <v>206667</v>
+      </c>
+    </row>
+    <row r="1618" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1618">
         <v>14</v>
       </c>
-    </row>
-    <row r="1619" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1618">
+        <v>166198</v>
+      </c>
+      <c r="E1618">
+        <v>165980</v>
+      </c>
+    </row>
+    <row r="1619" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1619">
         <v>15</v>
       </c>
-    </row>
-    <row r="1620" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1619">
+        <v>217966</v>
+      </c>
+      <c r="E1619">
+        <v>217593</v>
+      </c>
+    </row>
+    <row r="1620" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1620">
         <v>16</v>
       </c>
-    </row>
-    <row r="1621" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1620">
+        <v>133692</v>
+      </c>
+      <c r="E1620">
+        <v>133028</v>
+      </c>
+    </row>
+    <row r="1621" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1621">
         <v>17</v>
       </c>
-    </row>
-    <row r="1622" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1621">
+        <v>154239</v>
+      </c>
+      <c r="E1621">
+        <v>153950</v>
+      </c>
+    </row>
+    <row r="1622" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1622">
         <v>18</v>
       </c>
-    </row>
-    <row r="1623" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1622">
+        <v>162767</v>
+      </c>
+      <c r="E1622">
+        <v>161779</v>
+      </c>
+    </row>
+    <row r="1623" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1623">
         <v>19</v>
       </c>
-    </row>
-    <row r="1624" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1623">
+        <v>194314</v>
+      </c>
+      <c r="E1623">
+        <v>193849</v>
+      </c>
+    </row>
+    <row r="1624" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1624">
         <v>20</v>
       </c>
-    </row>
-    <row r="1625" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1624">
+        <v>155915</v>
+      </c>
+      <c r="E1624">
+        <v>155172</v>
+      </c>
+    </row>
+    <row r="1625" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1625">
         <v>21</v>
       </c>
-    </row>
-    <row r="1626" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1625">
+        <v>184615</v>
+      </c>
+      <c r="E1625">
+        <v>184423</v>
+      </c>
+    </row>
+    <row r="1626" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1626">
         <v>22</v>
       </c>
-    </row>
-    <row r="1627" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1626">
+        <v>196875</v>
+      </c>
+      <c r="E1626">
+        <v>195703</v>
+      </c>
+    </row>
+    <row r="1627" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1627">
         <v>23</v>
       </c>
-    </row>
-    <row r="1628" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1627">
+        <v>244502</v>
+      </c>
+      <c r="E1627">
+        <v>244275</v>
+      </c>
+    </row>
+    <row r="1628" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1628">
         <v>24</v>
       </c>
-    </row>
-    <row r="1629" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1628">
+        <v>127169</v>
+      </c>
+      <c r="E1628">
+        <v>126815</v>
+      </c>
+    </row>
+    <row r="1629" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1629">
         <v>25</v>
       </c>
-    </row>
-    <row r="1630" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1629">
+        <v>155651</v>
+      </c>
+      <c r="E1629">
+        <v>155043</v>
+      </c>
+    </row>
+    <row r="1630" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1630">
         <v>26</v>
       </c>
-    </row>
-    <row r="1631" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1630">
+        <v>153105</v>
+      </c>
+      <c r="E1630">
+        <v>152769</v>
+      </c>
+    </row>
+    <row r="1631" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1631">
         <v>27</v>
       </c>
-    </row>
-    <row r="1632" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1631">
+        <v>196397</v>
+      </c>
+      <c r="E1631">
+        <v>195677</v>
+      </c>
+    </row>
+    <row r="1632" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1632">
         <v>28</v>
       </c>
-    </row>
-    <row r="1633" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1632">
+        <v>147123</v>
+      </c>
+      <c r="E1632">
+        <v>146792</v>
+      </c>
+    </row>
+    <row r="1633" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1633">
         <v>29</v>
       </c>
-    </row>
-    <row r="1634" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1633">
+        <v>186614</v>
+      </c>
+      <c r="E1633">
+        <v>186130</v>
+      </c>
+    </row>
+    <row r="1634" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1634">
         <v>30</v>
       </c>
-    </row>
-    <row r="1635" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1634">
+        <v>183074</v>
+      </c>
+      <c r="E1634">
+        <v>182812</v>
+      </c>
+    </row>
+    <row r="1635" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1635">
         <v>31</v>
       </c>
-    </row>
-    <row r="1636" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1635">
+        <v>247954</v>
+      </c>
+      <c r="E1635">
+        <v>247246</v>
+      </c>
+    </row>
+    <row r="1636" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1636">
         <v>32</v>
       </c>
-    </row>
-    <row r="1637" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1636">
+        <v>132154</v>
+      </c>
+      <c r="E1636">
+        <v>132479</v>
+      </c>
+    </row>
+    <row r="1637" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1637">
         <v>33</v>
       </c>
-    </row>
-    <row r="1638" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1637">
+        <v>152208</v>
+      </c>
+      <c r="E1637">
+        <v>153298</v>
+      </c>
+    </row>
+    <row r="1638" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1638">
         <v>34</v>
       </c>
-    </row>
-    <row r="1639" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1638">
+        <v>136857</v>
+      </c>
+      <c r="E1638">
+        <v>136870</v>
+      </c>
+    </row>
+    <row r="1639" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1639">
         <v>35</v>
       </c>
-    </row>
-    <row r="1640" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1639">
+        <v>158379</v>
+      </c>
+      <c r="E1639">
+        <v>159141</v>
+      </c>
+    </row>
+    <row r="1640" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1640">
         <v>36</v>
       </c>
-    </row>
-    <row r="1641" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1640">
+        <v>157804</v>
+      </c>
+      <c r="E1640">
+        <v>158352</v>
+      </c>
+    </row>
+    <row r="1641" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1641">
         <v>37</v>
       </c>
-    </row>
-    <row r="1642" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1641">
+        <v>187264</v>
+      </c>
+      <c r="E1641">
+        <v>188929</v>
+      </c>
+    </row>
+    <row r="1642" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1642">
         <v>38</v>
       </c>
-    </row>
-    <row r="1643" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1642">
+        <v>164632</v>
+      </c>
+      <c r="E1642">
+        <v>164672</v>
+      </c>
+    </row>
+    <row r="1643" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1643">
         <v>39</v>
       </c>
-    </row>
-    <row r="1644" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1643">
+        <v>196660</v>
+      </c>
+      <c r="E1643">
+        <v>197776</v>
+      </c>
+    </row>
+    <row r="1644" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1644">
         <v>40</v>
       </c>
-    </row>
-    <row r="1645" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1644">
+        <v>125725</v>
+      </c>
+      <c r="E1644">
+        <v>126384</v>
+      </c>
+    </row>
+    <row r="1645" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1645">
         <v>41</v>
       </c>
-    </row>
-    <row r="1646" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1645">
+        <v>153449</v>
+      </c>
+      <c r="E1645">
+        <v>154312</v>
+      </c>
+    </row>
+    <row r="1646" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1646">
         <v>42</v>
       </c>
-    </row>
-    <row r="1647" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1646">
+        <v>129985</v>
+      </c>
+      <c r="E1646">
+        <v>130383</v>
+      </c>
+    </row>
+    <row r="1647" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1647">
         <v>43</v>
       </c>
-    </row>
-    <row r="1648" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1647">
+        <v>159985</v>
+      </c>
+      <c r="E1647">
+        <v>160413</v>
+      </c>
+    </row>
+    <row r="1648" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1648">
         <v>44</v>
       </c>
-    </row>
-    <row r="1649" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1648">
+        <v>148845</v>
+      </c>
+      <c r="E1648">
+        <v>149699</v>
+      </c>
+    </row>
+    <row r="1649" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1649">
         <v>45</v>
       </c>
-    </row>
-    <row r="1650" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1649">
+        <v>189251</v>
+      </c>
+      <c r="E1649">
+        <v>190516</v>
+      </c>
+    </row>
+    <row r="1650" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1650">
         <v>46</v>
       </c>
-    </row>
-    <row r="1651" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1650">
+        <v>154780</v>
+      </c>
+      <c r="E1650">
+        <v>155396</v>
+      </c>
+    </row>
+    <row r="1651" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1651">
         <v>47</v>
       </c>
-    </row>
-    <row r="1652" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1651">
+        <v>198948</v>
+      </c>
+      <c r="E1651">
+        <v>199871</v>
+      </c>
+    </row>
+    <row r="1652" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1652">
         <v>48</v>
       </c>
-    </row>
-    <row r="1653" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1652">
+        <v>123606</v>
+      </c>
+      <c r="E1652">
+        <v>123544</v>
+      </c>
+    </row>
+    <row r="1653" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1653">
         <v>49</v>
       </c>
-    </row>
-    <row r="1654" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1653">
+        <v>141002</v>
+      </c>
+      <c r="E1653">
+        <v>141493</v>
+      </c>
+    </row>
+    <row r="1654" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1654">
         <v>50</v>
       </c>
-    </row>
-    <row r="1655" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1654">
+        <v>148055</v>
+      </c>
+      <c r="E1654">
+        <v>148064</v>
+      </c>
+    </row>
+    <row r="1655" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1655">
         <v>51</v>
       </c>
-    </row>
-    <row r="1656" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1655">
+        <v>173737</v>
+      </c>
+      <c r="E1655">
+        <v>174584</v>
+      </c>
+    </row>
+    <row r="1656" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1656">
         <v>52</v>
       </c>
-    </row>
-    <row r="1657" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1656">
+        <v>145849</v>
+      </c>
+      <c r="E1656">
+        <v>145830</v>
+      </c>
+    </row>
+    <row r="1657" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1657">
         <v>53</v>
       </c>
-    </row>
-    <row r="1658" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1657">
+        <v>170712</v>
+      </c>
+      <c r="E1657">
+        <v>171395</v>
+      </c>
+    </row>
+    <row r="1658" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1658">
         <v>54</v>
       </c>
-    </row>
-    <row r="1659" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1658">
+        <v>181214</v>
+      </c>
+      <c r="E1658">
+        <v>181160</v>
+      </c>
+    </row>
+    <row r="1659" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1659">
         <v>55</v>
       </c>
-    </row>
-    <row r="1660" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1659">
+        <v>220808</v>
+      </c>
+      <c r="E1659">
+        <v>222009</v>
+      </c>
+    </row>
+    <row r="1660" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1660">
         <v>56</v>
       </c>
-    </row>
-    <row r="1661" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1660">
+        <v>118232</v>
+      </c>
+      <c r="E1660">
+        <v>118484</v>
+      </c>
+    </row>
+    <row r="1661" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1661">
         <v>57</v>
       </c>
-    </row>
-    <row r="1662" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1661">
+        <v>142185</v>
+      </c>
+      <c r="E1661">
+        <v>142450</v>
+      </c>
+    </row>
+    <row r="1662" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1662">
         <v>58</v>
       </c>
-    </row>
-    <row r="1663" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1662">
+        <v>140145</v>
+      </c>
+      <c r="E1662">
+        <v>140544</v>
+      </c>
+    </row>
+    <row r="1663" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1663">
         <v>59</v>
       </c>
-    </row>
-    <row r="1664" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1663">
+        <v>175516</v>
+      </c>
+      <c r="E1663">
+        <v>176028</v>
+      </c>
+    </row>
+    <row r="1664" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1664">
         <v>60</v>
       </c>
-    </row>
-    <row r="1665" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1664">
+        <v>147113</v>
+      </c>
+      <c r="E1664">
+        <v>146803</v>
+      </c>
+    </row>
+    <row r="1665" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1665">
         <v>61</v>
       </c>
-    </row>
-    <row r="1666" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1665">
+        <v>173192</v>
+      </c>
+      <c r="E1665">
+        <v>173687</v>
+      </c>
+    </row>
+    <row r="1666" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1666">
         <v>62</v>
       </c>
-    </row>
-    <row r="1667" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1666">
+        <v>169440</v>
+      </c>
+      <c r="E1666">
+        <v>170029</v>
+      </c>
+    </row>
+    <row r="1667" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1667">
         <v>63</v>
       </c>
-    </row>
-    <row r="1668" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1667">
+        <v>223737</v>
+      </c>
+      <c r="E1667">
+        <v>224650</v>
+      </c>
+    </row>
+    <row r="1668" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1668" t="s">
         <v>30</v>
       </c>
       <c r="C1668">
         <v>0</v>
       </c>
-    </row>
-    <row r="1669" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1668">
+        <v>143103</v>
+      </c>
+      <c r="E1668">
+        <v>143099</v>
+      </c>
+    </row>
+    <row r="1669" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1669">
         <v>1</v>
       </c>
-    </row>
-    <row r="1670" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1669">
+        <v>168067</v>
+      </c>
+      <c r="E1669">
+        <v>167957</v>
+      </c>
+    </row>
+    <row r="1670" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1670">
         <v>2</v>
       </c>
-    </row>
-    <row r="1671" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1670">
+        <v>148568</v>
+      </c>
+      <c r="E1670">
+        <v>147261</v>
+      </c>
+    </row>
+    <row r="1671" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1671">
         <v>3</v>
       </c>
-    </row>
-    <row r="1672" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1671">
+        <v>175212</v>
+      </c>
+      <c r="E1671">
+        <v>173756</v>
+      </c>
+    </row>
+    <row r="1672" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1672">
         <v>4</v>
       </c>
-    </row>
-    <row r="1673" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1672">
+        <v>169267</v>
+      </c>
+      <c r="E1672">
+        <v>169095</v>
+      </c>
+    </row>
+    <row r="1673" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1673">
         <v>5</v>
       </c>
-    </row>
-    <row r="1674" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1673">
+        <v>204659</v>
+      </c>
+      <c r="E1673">
+        <v>204677</v>
+      </c>
+    </row>
+    <row r="1674" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1674">
         <v>6</v>
       </c>
-    </row>
-    <row r="1675" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1674">
+        <v>176632</v>
+      </c>
+      <c r="E1674">
+        <v>174827</v>
+      </c>
+    </row>
+    <row r="1675" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1675">
         <v>7</v>
       </c>
-    </row>
-    <row r="1676" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1675">
+        <v>215365</v>
+      </c>
+      <c r="E1675">
+        <v>213310</v>
+      </c>
+    </row>
+    <row r="1676" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1676">
         <v>8</v>
       </c>
-    </row>
-    <row r="1677" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1676">
+        <v>136499</v>
+      </c>
+      <c r="E1676">
+        <v>136496</v>
+      </c>
+    </row>
+    <row r="1677" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1677">
         <v>9</v>
       </c>
-    </row>
-    <row r="1678" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1677">
+        <v>169650</v>
+      </c>
+      <c r="E1677">
+        <v>170019</v>
+      </c>
+    </row>
+    <row r="1678" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1678">
         <v>10</v>
       </c>
-    </row>
-    <row r="1679" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1678">
+        <v>141199</v>
+      </c>
+      <c r="E1678">
+        <v>140276</v>
+      </c>
+    </row>
+    <row r="1679" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1679">
         <v>11</v>
       </c>
-    </row>
-    <row r="1680" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1679">
+        <v>177042</v>
+      </c>
+      <c r="E1679">
+        <v>175883</v>
+      </c>
+    </row>
+    <row r="1680" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1680">
         <v>12</v>
       </c>
-    </row>
-    <row r="1681" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1680">
+        <v>159784</v>
+      </c>
+      <c r="E1680">
+        <v>159899</v>
+      </c>
+    </row>
+    <row r="1681" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1681">
         <v>13</v>
       </c>
-    </row>
-    <row r="1682" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1681">
+        <v>206949</v>
+      </c>
+      <c r="E1681">
+        <v>207651</v>
+      </c>
+    </row>
+    <row r="1682" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1682">
         <v>14</v>
       </c>
-    </row>
-    <row r="1683" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1682">
+        <v>166279</v>
+      </c>
+      <c r="E1682">
+        <v>165123</v>
+      </c>
+    </row>
+    <row r="1683" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1683">
         <v>15</v>
       </c>
-    </row>
-    <row r="1684" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1683">
+        <v>237966</v>
+      </c>
+      <c r="E1683">
+        <v>236516</v>
+      </c>
+    </row>
+    <row r="1684" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1684">
         <v>16</v>
       </c>
-    </row>
-    <row r="1685" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1684">
+        <v>133178</v>
+      </c>
+      <c r="E1684">
+        <v>132366</v>
+      </c>
+    </row>
+    <row r="1685" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1685">
         <v>17</v>
       </c>
-    </row>
-    <row r="1686" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1685">
+        <v>161275</v>
+      </c>
+      <c r="E1685">
+        <v>160393</v>
+      </c>
+    </row>
+    <row r="1686" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1686">
         <v>18</v>
       </c>
-    </row>
-    <row r="1687" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1686">
+        <v>161997</v>
+      </c>
+      <c r="E1686">
+        <v>161331</v>
+      </c>
+    </row>
+    <row r="1687" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1687">
         <v>19</v>
       </c>
-    </row>
-    <row r="1688" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1687">
+        <v>194201</v>
+      </c>
+      <c r="E1687">
+        <v>193689</v>
+      </c>
+    </row>
+    <row r="1688" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1688">
         <v>20</v>
       </c>
-    </row>
-    <row r="1689" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1688">
+        <v>155346</v>
+      </c>
+      <c r="E1688">
+        <v>154306</v>
+      </c>
+    </row>
+    <row r="1689" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1689">
         <v>21</v>
       </c>
-    </row>
-    <row r="1690" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1689">
+        <v>184687</v>
+      </c>
+      <c r="E1689">
+        <v>183579</v>
+      </c>
+    </row>
+    <row r="1690" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1690">
         <v>22</v>
       </c>
-    </row>
-    <row r="1691" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1690">
+        <v>195936</v>
+      </c>
+      <c r="E1690">
+        <v>195171</v>
+      </c>
+    </row>
+    <row r="1691" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1691">
         <v>23</v>
       </c>
-    </row>
-    <row r="1692" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1691">
+        <v>244684</v>
+      </c>
+      <c r="E1691">
+        <v>244096</v>
+      </c>
+    </row>
+    <row r="1692" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1692">
         <v>24</v>
       </c>
-    </row>
-    <row r="1693" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1692">
+        <v>126978</v>
+      </c>
+      <c r="E1692">
+        <v>126436</v>
+      </c>
+    </row>
+    <row r="1693" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1693">
         <v>25</v>
       </c>
-    </row>
-    <row r="1694" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1693">
+        <v>155274</v>
+      </c>
+      <c r="E1693">
+        <v>154758</v>
+      </c>
+    </row>
+    <row r="1694" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1694">
         <v>26</v>
       </c>
-    </row>
-    <row r="1695" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1694">
+        <v>152918</v>
+      </c>
+      <c r="E1694">
+        <v>152613</v>
+      </c>
+    </row>
+    <row r="1695" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1695">
         <v>27</v>
       </c>
-    </row>
-    <row r="1696" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1695">
+        <v>195947</v>
+      </c>
+      <c r="E1695">
+        <v>195935</v>
+      </c>
+    </row>
+    <row r="1696" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1696">
         <v>28</v>
       </c>
-    </row>
-    <row r="1697" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1696">
+        <v>147025</v>
+      </c>
+      <c r="E1696">
+        <v>146397</v>
+      </c>
+    </row>
+    <row r="1697" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1697">
         <v>29</v>
       </c>
-    </row>
-    <row r="1698" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1697">
+        <v>186324</v>
+      </c>
+      <c r="E1697">
+        <v>185688</v>
+      </c>
+    </row>
+    <row r="1698" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1698">
         <v>30</v>
       </c>
-    </row>
-    <row r="1699" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1698">
+        <v>166205</v>
+      </c>
+      <c r="E1698">
+        <v>165036</v>
+      </c>
+    </row>
+    <row r="1699" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1699">
         <v>31</v>
       </c>
-    </row>
-    <row r="1700" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1699">
+        <v>247673</v>
+      </c>
+      <c r="E1699">
+        <v>247812</v>
+      </c>
+    </row>
+    <row r="1700" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1700">
         <v>32</v>
       </c>
-    </row>
-    <row r="1701" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1700">
+        <v>132677</v>
+      </c>
+      <c r="E1700">
+        <v>132488</v>
+      </c>
+    </row>
+    <row r="1701" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1701">
         <v>33</v>
       </c>
-    </row>
-    <row r="1702" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1701">
+        <v>155002</v>
+      </c>
+      <c r="E1701">
+        <v>155099</v>
+      </c>
+    </row>
+    <row r="1702" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1702">
         <v>34</v>
       </c>
-    </row>
-    <row r="1703" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1702">
+        <v>137037</v>
+      </c>
+      <c r="E1702">
+        <v>136009</v>
+      </c>
+    </row>
+    <row r="1703" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1703">
         <v>35</v>
       </c>
-    </row>
-    <row r="1704" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1703">
+        <v>160646</v>
+      </c>
+      <c r="E1703">
+        <v>159538</v>
+      </c>
+    </row>
+    <row r="1704" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1704">
         <v>36</v>
       </c>
-    </row>
-    <row r="1705" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1704">
+        <v>166205</v>
+      </c>
+      <c r="E1704">
+        <v>165605</v>
+      </c>
+    </row>
+    <row r="1705" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1705">
         <v>37</v>
       </c>
-    </row>
-    <row r="1706" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1705">
+        <v>202901</v>
+      </c>
+      <c r="E1705">
+        <v>202381</v>
+      </c>
+    </row>
+    <row r="1706" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1706">
         <v>38</v>
       </c>
-    </row>
-    <row r="1707" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1706">
+        <v>164897</v>
+      </c>
+      <c r="E1706">
+        <v>162925</v>
+      </c>
+    </row>
+    <row r="1707" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1707">
         <v>39</v>
       </c>
-    </row>
-    <row r="1708" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1707">
+        <v>205484</v>
+      </c>
+      <c r="E1707">
+        <v>202968</v>
+      </c>
+    </row>
+    <row r="1708" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1708">
         <v>40</v>
       </c>
-    </row>
-    <row r="1709" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1708">
+        <v>126506</v>
+      </c>
+      <c r="E1708">
+        <v>126506</v>
+      </c>
+    </row>
+    <row r="1709" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1709">
         <v>41</v>
       </c>
-    </row>
-    <row r="1710" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1709">
+        <v>154515</v>
+      </c>
+      <c r="E1709">
+        <v>154869</v>
+      </c>
+    </row>
+    <row r="1710" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1710">
         <v>42</v>
       </c>
-    </row>
-    <row r="1711" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1710">
+        <v>130562</v>
+      </c>
+      <c r="E1710">
+        <v>129814</v>
+      </c>
+    </row>
+    <row r="1711" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1711">
         <v>43</v>
       </c>
-    </row>
-    <row r="1712" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1711">
+        <v>160586</v>
+      </c>
+      <c r="E1711">
+        <v>159804</v>
+      </c>
+    </row>
+    <row r="1712" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1712">
         <v>44</v>
       </c>
-    </row>
-    <row r="1713" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1712">
+        <v>149882</v>
+      </c>
+      <c r="E1712">
+        <v>149505</v>
+      </c>
+    </row>
+    <row r="1713" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1713">
         <v>45</v>
       </c>
-    </row>
-    <row r="1714" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1713">
+        <v>190856</v>
+      </c>
+      <c r="E1713">
+        <v>190607</v>
+      </c>
+    </row>
+    <row r="1714" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1714">
         <v>46</v>
       </c>
-    </row>
-    <row r="1715" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1714">
+        <v>155625</v>
+      </c>
+      <c r="E1714">
+        <v>154141</v>
+      </c>
+    </row>
+    <row r="1715" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1715">
         <v>47</v>
       </c>
-    </row>
-    <row r="1716" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1715">
+        <v>200255</v>
+      </c>
+      <c r="E1715">
+        <v>198267</v>
+      </c>
+    </row>
+    <row r="1716" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1716">
         <v>48</v>
       </c>
-    </row>
-    <row r="1717" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1716">
+        <v>123712</v>
+      </c>
+      <c r="E1716">
+        <v>123067</v>
+      </c>
+    </row>
+    <row r="1717" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1717">
         <v>49</v>
       </c>
-    </row>
-    <row r="1718" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1717">
+        <v>141661</v>
+      </c>
+      <c r="E1717">
+        <v>141023</v>
+      </c>
+    </row>
+    <row r="1718" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1718">
         <v>50</v>
       </c>
-    </row>
-    <row r="1719" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1718">
+        <v>148228</v>
+      </c>
+      <c r="E1718">
+        <v>147784</v>
+      </c>
+    </row>
+    <row r="1719" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1719">
         <v>51</v>
       </c>
-    </row>
-    <row r="1720" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1719">
+        <v>174762</v>
+      </c>
+      <c r="E1719">
+        <v>174496</v>
+      </c>
+    </row>
+    <row r="1720" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1720">
         <v>52</v>
       </c>
-    </row>
-    <row r="1721" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1720">
+        <v>145981</v>
+      </c>
+      <c r="E1720">
+        <v>144697</v>
+      </c>
+    </row>
+    <row r="1721" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1721">
         <v>53</v>
       </c>
-    </row>
-    <row r="1722" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1721">
+        <v>171528</v>
+      </c>
+      <c r="E1721">
+        <v>170114</v>
+      </c>
+    </row>
+    <row r="1722" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1722">
         <v>54</v>
       </c>
-    </row>
-    <row r="1723" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1722">
+        <v>181416</v>
+      </c>
+      <c r="E1722">
+        <v>180079</v>
+      </c>
+    </row>
+    <row r="1723" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1723">
         <v>55</v>
       </c>
-    </row>
-    <row r="1724" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1723">
+        <v>222240</v>
+      </c>
+      <c r="E1723">
+        <v>221059</v>
+      </c>
+    </row>
+    <row r="1724" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1724">
         <v>56</v>
       </c>
-    </row>
-    <row r="1725" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1724">
+        <v>123670</v>
+      </c>
+      <c r="E1724">
+        <v>122976</v>
+      </c>
+    </row>
+    <row r="1725" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1725">
         <v>57</v>
       </c>
-    </row>
-    <row r="1726" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1725">
+        <v>155236</v>
+      </c>
+      <c r="E1725">
+        <v>154674</v>
+      </c>
+    </row>
+    <row r="1726" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1726">
         <v>58</v>
       </c>
-    </row>
-    <row r="1727" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1726">
+        <v>141943</v>
+      </c>
+      <c r="E1726">
+        <v>141710</v>
+      </c>
+    </row>
+    <row r="1727" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1727">
         <v>59</v>
       </c>
-    </row>
-    <row r="1728" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1727">
+        <v>176215</v>
+      </c>
+      <c r="E1727">
+        <v>176299</v>
+      </c>
+    </row>
+    <row r="1728" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1728">
         <v>60</v>
       </c>
-    </row>
-    <row r="1729" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1728">
+        <v>146953</v>
+      </c>
+      <c r="E1728">
+        <v>146312</v>
+      </c>
+    </row>
+    <row r="1729" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1729">
         <v>61</v>
       </c>
-    </row>
-    <row r="1730" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1729">
+        <v>173090</v>
+      </c>
+      <c r="E1729">
+        <v>171993</v>
+      </c>
+    </row>
+    <row r="1730" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1730">
         <v>62</v>
       </c>
-    </row>
-    <row r="1731" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1730">
+        <v>172611</v>
+      </c>
+      <c r="E1730">
+        <v>171939</v>
+      </c>
+    </row>
+    <row r="1731" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1731">
         <v>63</v>
       </c>
-    </row>
-    <row r="1732" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1731">
+        <v>247511</v>
+      </c>
+      <c r="E1731">
+        <v>247743</v>
+      </c>
+    </row>
+    <row r="1732" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1732" t="s">
         <v>31</v>
       </c>
       <c r="C1732">
         <v>0</v>
       </c>
-    </row>
-    <row r="1733" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1732">
+        <v>143207</v>
+      </c>
+      <c r="E1732">
+        <v>142951</v>
+      </c>
+    </row>
+    <row r="1733" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1733">
         <v>1</v>
       </c>
-    </row>
-    <row r="1734" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1733">
+        <v>168804</v>
+      </c>
+      <c r="E1733">
+        <v>167617</v>
+      </c>
+    </row>
+    <row r="1734" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1734">
         <v>2</v>
       </c>
-    </row>
-    <row r="1735" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1734">
+        <v>147368</v>
+      </c>
+      <c r="E1734">
+        <v>147657</v>
+      </c>
+    </row>
+    <row r="1735" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1735">
         <v>3</v>
       </c>
-    </row>
-    <row r="1736" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1735">
+        <v>173840</v>
+      </c>
+      <c r="E1735">
+        <v>174122</v>
+      </c>
+    </row>
+    <row r="1736" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1736">
         <v>4</v>
       </c>
-    </row>
-    <row r="1737" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1736">
+        <v>169224</v>
+      </c>
+      <c r="E1736">
+        <v>168764</v>
+      </c>
+    </row>
+    <row r="1737" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1737">
         <v>5</v>
       </c>
-    </row>
-    <row r="1738" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1737">
+        <v>205078</v>
+      </c>
+      <c r="E1737">
+        <v>204217</v>
+      </c>
+    </row>
+    <row r="1738" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1738">
         <v>6</v>
       </c>
-    </row>
-    <row r="1739" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1738">
+        <v>174884</v>
+      </c>
+      <c r="E1738">
+        <v>175358</v>
+      </c>
+    </row>
+    <row r="1739" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1739">
         <v>7</v>
       </c>
-    </row>
-    <row r="1740" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1739">
+        <v>213502</v>
+      </c>
+      <c r="E1739">
+        <v>213916</v>
+      </c>
+    </row>
+    <row r="1740" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1740">
         <v>8</v>
       </c>
-    </row>
-    <row r="1741" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1740">
+        <v>136536</v>
+      </c>
+      <c r="E1740">
+        <v>135524</v>
+      </c>
+    </row>
+    <row r="1741" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1741">
         <v>9</v>
       </c>
-    </row>
-    <row r="1742" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1741">
+        <v>169734</v>
+      </c>
+      <c r="E1741">
+        <v>169045</v>
+      </c>
+    </row>
+    <row r="1742" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1742">
         <v>10</v>
       </c>
-    </row>
-    <row r="1743" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1742">
+        <v>140101</v>
+      </c>
+      <c r="E1742">
+        <v>139736</v>
+      </c>
+    </row>
+    <row r="1743" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1743">
         <v>11</v>
       </c>
-    </row>
-    <row r="1744" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1743">
+        <v>186527</v>
+      </c>
+      <c r="E1743">
+        <v>186568</v>
+      </c>
+    </row>
+    <row r="1744" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1744">
         <v>12</v>
       </c>
-    </row>
-    <row r="1745" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1744">
+        <v>169190</v>
+      </c>
+      <c r="E1744">
+        <v>168698</v>
+      </c>
+    </row>
+    <row r="1745" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1745">
         <v>13</v>
       </c>
-    </row>
-    <row r="1746" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1745">
+        <v>207463</v>
+      </c>
+      <c r="E1745">
+        <v>206290</v>
+      </c>
+    </row>
+    <row r="1746" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1746">
         <v>14</v>
       </c>
-    </row>
-    <row r="1747" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1746">
+        <v>164923</v>
+      </c>
+      <c r="E1746">
+        <v>164441</v>
+      </c>
+    </row>
+    <row r="1747" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1747">
         <v>15</v>
       </c>
-    </row>
-    <row r="1748" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1747">
+        <v>216302</v>
+      </c>
+      <c r="E1747">
+        <v>216464</v>
+      </c>
+    </row>
+    <row r="1748" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1748">
         <v>16</v>
       </c>
-    </row>
-    <row r="1749" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1748">
+        <v>135321</v>
+      </c>
+      <c r="E1748">
+        <v>135791</v>
+      </c>
+    </row>
+    <row r="1749" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1749">
         <v>17</v>
       </c>
-    </row>
-    <row r="1750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1749">
+        <v>153166</v>
+      </c>
+      <c r="E1749">
+        <v>153737</v>
+      </c>
+    </row>
+    <row r="1750" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1750">
         <v>18</v>
       </c>
-    </row>
-    <row r="1751" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1750">
+        <v>161170</v>
+      </c>
+      <c r="E1750">
+        <v>160851</v>
+      </c>
+    </row>
+    <row r="1751" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1751">
         <v>19</v>
       </c>
-    </row>
-    <row r="1752" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1751">
+        <v>193467</v>
+      </c>
+      <c r="E1751">
+        <v>192842</v>
+      </c>
+    </row>
+    <row r="1752" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1752">
         <v>20</v>
       </c>
-    </row>
-    <row r="1753" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1752">
+        <v>154152</v>
+      </c>
+      <c r="E1752">
+        <v>154776</v>
+      </c>
+    </row>
+    <row r="1753" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1753">
         <v>21</v>
       </c>
-    </row>
-    <row r="1754" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1753">
+        <v>183409</v>
+      </c>
+      <c r="E1753">
+        <v>184116</v>
+      </c>
+    </row>
+    <row r="1754" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1754">
         <v>22</v>
       </c>
-    </row>
-    <row r="1755" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1754">
+        <v>194958</v>
+      </c>
+      <c r="E1754">
+        <v>194452</v>
+      </c>
+    </row>
+    <row r="1755" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1755">
         <v>23</v>
       </c>
-    </row>
-    <row r="1756" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1755">
+        <v>243860</v>
+      </c>
+      <c r="E1755">
+        <v>242590</v>
+      </c>
+    </row>
+    <row r="1756" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1756">
         <v>24</v>
       </c>
-    </row>
-    <row r="1757" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1756">
+        <v>126322</v>
+      </c>
+      <c r="E1756">
+        <v>126273</v>
+      </c>
+    </row>
+    <row r="1757" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1757">
         <v>25</v>
       </c>
-    </row>
-    <row r="1758" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1757">
+        <v>154598</v>
+      </c>
+      <c r="E1757">
+        <v>154985</v>
+      </c>
+    </row>
+    <row r="1758" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1758">
         <v>26</v>
       </c>
-    </row>
-    <row r="1759" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1758">
+        <v>152507</v>
+      </c>
+      <c r="E1758">
+        <v>151492</v>
+      </c>
+    </row>
+    <row r="1759" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1759">
         <v>27</v>
       </c>
-    </row>
-    <row r="1760" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1759">
+        <v>195709</v>
+      </c>
+      <c r="E1759">
+        <v>194878</v>
+      </c>
+    </row>
+    <row r="1760" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1760">
         <v>28</v>
       </c>
-    </row>
-    <row r="1761" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1760">
+        <v>146299</v>
+      </c>
+      <c r="E1760">
+        <v>146171</v>
+      </c>
+    </row>
+    <row r="1761" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1761">
         <v>29</v>
       </c>
-    </row>
-    <row r="1762" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1761">
+        <v>185507</v>
+      </c>
+      <c r="E1761">
+        <v>186084</v>
+      </c>
+    </row>
+    <row r="1762" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1762">
         <v>30</v>
       </c>
-    </row>
-    <row r="1763" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1762">
+        <v>182579</v>
+      </c>
+      <c r="E1762">
+        <v>181085</v>
+      </c>
+    </row>
+    <row r="1763" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1763">
         <v>31</v>
       </c>
-    </row>
-    <row r="1764" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1763">
+        <v>247621</v>
+      </c>
+      <c r="E1763">
+        <v>246252</v>
+      </c>
+    </row>
+    <row r="1764" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1764">
         <v>32</v>
       </c>
-    </row>
-    <row r="1765" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1764">
+        <v>132403</v>
+      </c>
+      <c r="E1764">
+        <v>131970</v>
+      </c>
+    </row>
+    <row r="1765" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1765">
         <v>33</v>
       </c>
-    </row>
-    <row r="1766" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1765">
+        <v>153327</v>
+      </c>
+      <c r="E1765">
+        <v>152696</v>
+      </c>
+    </row>
+    <row r="1766" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1766">
         <v>34</v>
       </c>
-    </row>
-    <row r="1767" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1766">
+        <v>135896</v>
+      </c>
+      <c r="E1766">
+        <v>136015</v>
+      </c>
+    </row>
+    <row r="1767" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1767">
         <v>35</v>
       </c>
-    </row>
-    <row r="1768" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1767">
+        <v>158177</v>
+      </c>
+      <c r="E1767">
+        <v>158205</v>
+      </c>
+    </row>
+    <row r="1768" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1768">
         <v>36</v>
       </c>
-    </row>
-    <row r="1769" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1768">
+        <v>158179</v>
+      </c>
+      <c r="E1768">
+        <v>158191</v>
+      </c>
+    </row>
+    <row r="1769" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1769">
         <v>37</v>
       </c>
-    </row>
-    <row r="1770" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1769">
+        <v>188559</v>
+      </c>
+      <c r="E1769">
+        <v>188560</v>
+      </c>
+    </row>
+    <row r="1770" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1770">
         <v>38</v>
       </c>
-    </row>
-    <row r="1771" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1770">
+        <v>162801</v>
+      </c>
+      <c r="E1770">
+        <v>163713</v>
+      </c>
+    </row>
+    <row r="1771" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1771">
         <v>39</v>
       </c>
-    </row>
-    <row r="1772" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1771">
+        <v>195594</v>
+      </c>
+      <c r="E1771">
+        <v>196541</v>
+      </c>
+    </row>
+    <row r="1772" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1772">
         <v>40</v>
       </c>
-    </row>
-    <row r="1773" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1772">
+        <v>126415</v>
+      </c>
+      <c r="E1772">
+        <v>125598</v>
+      </c>
+    </row>
+    <row r="1773" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1773">
         <v>41</v>
       </c>
-    </row>
-    <row r="1774" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1773">
+        <v>154768</v>
+      </c>
+      <c r="E1773">
+        <v>154010</v>
+      </c>
+    </row>
+    <row r="1774" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1774">
         <v>42</v>
       </c>
-    </row>
-    <row r="1775" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1774">
+        <v>129701</v>
+      </c>
+      <c r="E1774">
+        <v>129297</v>
+      </c>
+    </row>
+    <row r="1775" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1775">
         <v>43</v>
       </c>
-    </row>
-    <row r="1776" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1775">
+        <v>167284</v>
+      </c>
+      <c r="E1775">
+        <v>167152</v>
+      </c>
+    </row>
+    <row r="1776" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1776">
         <v>44</v>
       </c>
-    </row>
-    <row r="1777" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1776">
+        <v>149427</v>
+      </c>
+      <c r="E1776">
+        <v>148894</v>
+      </c>
+    </row>
+    <row r="1777" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1777">
         <v>45</v>
       </c>
-    </row>
-    <row r="1778" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1777">
+        <v>190511</v>
+      </c>
+      <c r="E1777">
+        <v>190504</v>
+      </c>
+    </row>
+    <row r="1778" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1778">
         <v>46</v>
       </c>
-    </row>
-    <row r="1779" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1778">
+        <v>162141</v>
+      </c>
+      <c r="E1778">
+        <v>162203</v>
+      </c>
+    </row>
+    <row r="1779" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1779">
         <v>47</v>
       </c>
-    </row>
-    <row r="1780" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1779">
+        <v>197968</v>
+      </c>
+      <c r="E1779">
+        <v>199022</v>
+      </c>
+    </row>
+    <row r="1780" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1780">
         <v>48</v>
       </c>
-    </row>
-    <row r="1781" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1780">
+        <v>132359</v>
+      </c>
+      <c r="E1780">
+        <v>131969</v>
+      </c>
+    </row>
+    <row r="1781" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1781">
         <v>49</v>
       </c>
-    </row>
-    <row r="1782" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1781">
+        <v>153333</v>
+      </c>
+      <c r="E1781">
+        <v>152682</v>
+      </c>
+    </row>
+    <row r="1782" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1782">
         <v>50</v>
       </c>
-    </row>
-    <row r="1783" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1782">
+        <v>135893</v>
+      </c>
+      <c r="E1782">
+        <v>135979</v>
+      </c>
+    </row>
+    <row r="1783" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1783">
         <v>51</v>
       </c>
-    </row>
-    <row r="1784" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1783">
+        <v>158110</v>
+      </c>
+      <c r="E1783">
+        <v>158134</v>
+      </c>
+    </row>
+    <row r="1784" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1784">
         <v>52</v>
       </c>
-    </row>
-    <row r="1785" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1784">
+        <v>144508</v>
+      </c>
+      <c r="E1784">
+        <v>145625</v>
+      </c>
+    </row>
+    <row r="1785" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1785">
         <v>53</v>
       </c>
-    </row>
-    <row r="1786" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1785">
+        <v>188485</v>
+      </c>
+      <c r="E1785">
+        <v>188485</v>
+      </c>
+    </row>
+    <row r="1786" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1786">
         <v>54</v>
       </c>
-    </row>
-    <row r="1787" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1786">
+        <v>179977</v>
+      </c>
+      <c r="E1786">
+        <v>180238</v>
+      </c>
+    </row>
+    <row r="1787" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1787">
         <v>55</v>
       </c>
-    </row>
-    <row r="1788" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1787">
+        <v>220941</v>
+      </c>
+      <c r="E1787">
+        <v>221115</v>
+      </c>
+    </row>
+    <row r="1788" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1788">
         <v>56</v>
       </c>
-    </row>
-    <row r="1789" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1788">
+        <v>117962</v>
+      </c>
+      <c r="E1788">
+        <v>117807</v>
+      </c>
+    </row>
+    <row r="1789" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1789">
         <v>57</v>
       </c>
-    </row>
-    <row r="1790" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1789">
+        <v>142127</v>
+      </c>
+      <c r="E1789">
+        <v>142300</v>
+      </c>
+    </row>
+    <row r="1790" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1790">
         <v>58</v>
       </c>
-    </row>
-    <row r="1791" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1790">
+        <v>140362</v>
+      </c>
+      <c r="E1790">
+        <v>139408</v>
+      </c>
+    </row>
+    <row r="1791" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1791">
         <v>59</v>
       </c>
-    </row>
-    <row r="1792" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1791">
+        <v>177486</v>
+      </c>
+      <c r="E1791">
+        <v>176593</v>
+      </c>
+    </row>
+    <row r="1792" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1792">
         <v>60</v>
       </c>
-    </row>
-    <row r="1793" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1792">
+        <v>137638</v>
+      </c>
+      <c r="E1792">
+        <v>138002</v>
+      </c>
+    </row>
+    <row r="1793" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1793">
         <v>61</v>
       </c>
-    </row>
-    <row r="1794" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1793">
+        <v>171864</v>
+      </c>
+      <c r="E1793">
+        <v>173006</v>
+      </c>
+    </row>
+    <row r="1794" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1794">
         <v>62</v>
       </c>
-    </row>
-    <row r="1795" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1794">
+        <v>169380</v>
+      </c>
+      <c r="E1794">
+        <v>168681</v>
+      </c>
+    </row>
+    <row r="1795" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1795">
         <v>63</v>
       </c>
-    </row>
-    <row r="1796" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1795">
+        <v>223902</v>
+      </c>
+      <c r="E1795">
+        <v>223797</v>
+      </c>
+    </row>
+    <row r="1796" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1796" t="s">
         <v>32</v>
       </c>
       <c r="C1796">
         <v>0</v>
       </c>
-    </row>
-    <row r="1797" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1796">
+        <v>148824</v>
+      </c>
+      <c r="E1796">
+        <v>140649</v>
+      </c>
+    </row>
+    <row r="1797" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1797">
         <v>1</v>
       </c>
-    </row>
-    <row r="1798" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1797">
+        <v>167486</v>
+      </c>
+      <c r="E1797">
+        <v>164544</v>
+      </c>
+    </row>
+    <row r="1798" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1798">
         <v>2</v>
       </c>
-    </row>
-    <row r="1799" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1798">
+        <v>147574</v>
+      </c>
+      <c r="E1798">
+        <v>142522</v>
+      </c>
+    </row>
+    <row r="1799" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1799">
         <v>3</v>
       </c>
-    </row>
-    <row r="1800" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1799">
+        <v>174093</v>
+      </c>
+      <c r="E1799">
+        <v>171335</v>
+      </c>
+    </row>
+    <row r="1800" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1800">
         <v>4</v>
       </c>
-    </row>
-    <row r="1801" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1800">
+        <v>187571</v>
+      </c>
+      <c r="E1800">
+        <v>184432</v>
+      </c>
+    </row>
+    <row r="1801" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1801">
         <v>5</v>
       </c>
-    </row>
-    <row r="1802" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1801">
+        <v>203827</v>
+      </c>
+      <c r="E1801">
+        <v>199818</v>
+      </c>
+    </row>
+    <row r="1802" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1802">
         <v>6</v>
       </c>
-    </row>
-    <row r="1803" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1802">
+        <v>175294</v>
+      </c>
+      <c r="E1802">
+        <v>172678</v>
+      </c>
+    </row>
+    <row r="1803" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1803">
         <v>7</v>
       </c>
-    </row>
-    <row r="1804" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1803">
+        <v>213707</v>
+      </c>
+      <c r="E1803">
+        <v>209956</v>
+      </c>
+    </row>
+    <row r="1804" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1804">
         <v>8</v>
       </c>
-    </row>
-    <row r="1805" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1804">
+        <v>135460</v>
+      </c>
+      <c r="E1804">
+        <v>133956</v>
+      </c>
+    </row>
+    <row r="1805" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1805">
         <v>9</v>
       </c>
-    </row>
-    <row r="1806" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1805">
+        <v>176578</v>
+      </c>
+      <c r="E1805">
+        <v>177069</v>
+      </c>
+    </row>
+    <row r="1806" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1806">
         <v>10</v>
       </c>
-    </row>
-    <row r="1807" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1806">
+        <v>139735</v>
+      </c>
+      <c r="E1806">
+        <v>138412</v>
+      </c>
+    </row>
+    <row r="1807" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1807">
         <v>11</v>
       </c>
-    </row>
-    <row r="1808" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1807">
+        <v>175753</v>
+      </c>
+      <c r="E1807">
+        <v>173611</v>
+      </c>
+    </row>
+    <row r="1808" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1808">
         <v>12</v>
       </c>
-    </row>
-    <row r="1809" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1808">
+        <v>158250</v>
+      </c>
+      <c r="E1808">
+        <v>156667</v>
+      </c>
+    </row>
+    <row r="1809" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1809">
         <v>13</v>
       </c>
-    </row>
-    <row r="1810" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1809">
+        <v>206133</v>
+      </c>
+      <c r="E1809">
+        <v>202945</v>
+      </c>
+    </row>
+    <row r="1810" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1810">
         <v>14</v>
       </c>
-    </row>
-    <row r="1811" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1810">
+        <v>165628</v>
+      </c>
+      <c r="E1810">
+        <v>164088</v>
+      </c>
+    </row>
+    <row r="1811" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1811">
         <v>15</v>
       </c>
-    </row>
-    <row r="1812" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1811">
+        <v>216317</v>
+      </c>
+      <c r="E1811">
+        <v>213527</v>
+      </c>
+    </row>
+    <row r="1812" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1812">
         <v>16</v>
       </c>
-    </row>
-    <row r="1813" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1812">
+        <v>134712</v>
+      </c>
+      <c r="E1812">
+        <v>135523</v>
+      </c>
+    </row>
+    <row r="1813" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1813">
         <v>17</v>
       </c>
-    </row>
-    <row r="1814" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1813">
+        <v>153650</v>
+      </c>
+      <c r="E1813">
+        <v>150857</v>
+      </c>
+    </row>
+    <row r="1814" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1814">
         <v>18</v>
       </c>
-    </row>
-    <row r="1815" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1814">
+        <v>160814</v>
+      </c>
+      <c r="E1814">
+        <v>158725</v>
+      </c>
+    </row>
+    <row r="1815" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1815">
         <v>19</v>
       </c>
-    </row>
-    <row r="1816" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1815">
+        <v>192759</v>
+      </c>
+      <c r="E1815">
+        <v>189884</v>
+      </c>
+    </row>
+    <row r="1816" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1816">
         <v>20</v>
       </c>
-    </row>
-    <row r="1817" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1816">
+        <v>154726</v>
+      </c>
+      <c r="E1816">
+        <v>152029</v>
+      </c>
+    </row>
+    <row r="1817" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1817">
         <v>21</v>
       </c>
-    </row>
-    <row r="1818" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1817">
+        <v>184084</v>
+      </c>
+      <c r="E1817">
+        <v>180338</v>
+      </c>
+    </row>
+    <row r="1818" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1818">
         <v>22</v>
       </c>
-    </row>
-    <row r="1819" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1818">
+        <v>194353</v>
+      </c>
+      <c r="E1818">
+        <v>191595</v>
+      </c>
+    </row>
+    <row r="1819" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1819">
         <v>23</v>
       </c>
-    </row>
-    <row r="1820" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1819">
+        <v>242485</v>
+      </c>
+      <c r="E1819">
+        <v>238472</v>
+      </c>
+    </row>
+    <row r="1820" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1820">
         <v>24</v>
       </c>
-    </row>
-    <row r="1821" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1820">
+        <v>126248</v>
+      </c>
+      <c r="E1820">
+        <v>124710</v>
+      </c>
+    </row>
+    <row r="1821" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1821">
         <v>25</v>
       </c>
-    </row>
-    <row r="1822" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1821">
+        <v>154957</v>
+      </c>
+      <c r="E1821">
+        <v>152644</v>
+      </c>
+    </row>
+    <row r="1822" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1822">
         <v>26</v>
       </c>
-    </row>
-    <row r="1823" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1822">
+        <v>151476</v>
+      </c>
+      <c r="E1822">
+        <v>150243</v>
+      </c>
+    </row>
+    <row r="1823" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1823">
         <v>27</v>
       </c>
-    </row>
-    <row r="1824" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1823">
+        <v>194804</v>
+      </c>
+      <c r="E1823">
+        <v>192723</v>
+      </c>
+    </row>
+    <row r="1824" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1824">
         <v>28</v>
       </c>
-    </row>
-    <row r="1825" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1824">
+        <v>146082</v>
+      </c>
+      <c r="E1824">
+        <v>144243</v>
+      </c>
+    </row>
+    <row r="1825" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1825">
         <v>29</v>
       </c>
-    </row>
-    <row r="1826" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1825">
+        <v>185987</v>
+      </c>
+      <c r="E1825">
+        <v>182958</v>
+      </c>
+    </row>
+    <row r="1826" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1826">
         <v>30</v>
       </c>
-    </row>
-    <row r="1827" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1826">
+        <v>181070</v>
+      </c>
+      <c r="E1826">
+        <v>179537</v>
+      </c>
+    </row>
+    <row r="1827" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1827">
         <v>31</v>
       </c>
-    </row>
-    <row r="1828" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1827">
+        <v>246089</v>
+      </c>
+      <c r="E1827">
+        <v>243227</v>
+      </c>
+    </row>
+    <row r="1828" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1828">
         <v>32</v>
       </c>
-    </row>
-    <row r="1829" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1828">
+        <v>131928</v>
+      </c>
+      <c r="E1828">
+        <v>130148</v>
+      </c>
+    </row>
+    <row r="1829" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1829">
         <v>33</v>
       </c>
-    </row>
-    <row r="1830" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1829">
+        <v>152651</v>
+      </c>
+      <c r="E1829">
+        <v>150315</v>
+      </c>
+    </row>
+    <row r="1830" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1830">
         <v>34</v>
       </c>
-    </row>
-    <row r="1831" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1830">
+        <v>135955</v>
+      </c>
+      <c r="E1830">
+        <v>134326</v>
+      </c>
+    </row>
+    <row r="1831" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1831">
         <v>35</v>
       </c>
-    </row>
-    <row r="1832" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1831">
+        <v>135955</v>
+      </c>
+      <c r="E1831">
+        <v>134326</v>
+      </c>
+    </row>
+    <row r="1832" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1832">
         <v>36</v>
       </c>
-    </row>
-    <row r="1833" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1832">
+        <v>157943</v>
+      </c>
+      <c r="E1832">
+        <v>155246</v>
+      </c>
+    </row>
+    <row r="1833" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1833">
         <v>37</v>
       </c>
-    </row>
-    <row r="1834" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1833">
+        <v>188464</v>
+      </c>
+      <c r="E1833">
+        <v>184805</v>
+      </c>
+    </row>
+    <row r="1834" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1834">
         <v>38</v>
       </c>
-    </row>
-    <row r="1835" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1834">
+        <v>170313</v>
+      </c>
+      <c r="E1834">
+        <v>167833</v>
+      </c>
+    </row>
+    <row r="1835" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1835">
         <v>39</v>
       </c>
-    </row>
-    <row r="1836" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1835">
+        <v>196777</v>
+      </c>
+      <c r="E1835">
+        <v>193425</v>
+      </c>
+    </row>
+    <row r="1836" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1836">
         <v>40</v>
       </c>
-    </row>
-    <row r="1837" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1836">
+        <v>125568</v>
+      </c>
+      <c r="E1836">
+        <v>124387</v>
+      </c>
+    </row>
+    <row r="1837" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1837">
         <v>41</v>
       </c>
-    </row>
-    <row r="1838" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1837">
+        <v>153967</v>
+      </c>
+      <c r="E1837">
+        <v>152118</v>
+      </c>
+    </row>
+    <row r="1838" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1838">
         <v>42</v>
       </c>
-    </row>
-    <row r="1839" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1838">
+        <v>129256</v>
+      </c>
+      <c r="E1838">
+        <v>128245</v>
+      </c>
+    </row>
+    <row r="1839" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1839">
         <v>43</v>
       </c>
-    </row>
-    <row r="1840" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1839">
+        <v>159531</v>
+      </c>
+      <c r="E1839">
+        <v>157947</v>
+      </c>
+    </row>
+    <row r="1840" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1840">
         <v>44</v>
       </c>
-    </row>
-    <row r="1841" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1840">
+        <v>148886</v>
+      </c>
+      <c r="E1840">
+        <v>147134</v>
+      </c>
+    </row>
+    <row r="1841" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1841">
         <v>45</v>
       </c>
-    </row>
-    <row r="1842" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1841">
+        <v>190465</v>
+      </c>
+      <c r="E1841">
+        <v>187551</v>
+      </c>
+    </row>
+    <row r="1842" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1842">
         <v>46</v>
       </c>
-    </row>
-    <row r="1843" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1842">
+        <v>154082</v>
+      </c>
+      <c r="E1842">
+        <v>152612</v>
+      </c>
+    </row>
+    <row r="1843" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1843">
         <v>47</v>
       </c>
-    </row>
-    <row r="1844" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1843">
+        <v>199178</v>
+      </c>
+      <c r="E1843">
+        <v>196501</v>
+      </c>
+    </row>
+    <row r="1844" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1844">
         <v>48</v>
       </c>
-    </row>
-    <row r="1845" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1844">
+        <v>123255</v>
+      </c>
+      <c r="E1844">
+        <v>121480</v>
+      </c>
+    </row>
+    <row r="1845" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1845">
         <v>49</v>
       </c>
-    </row>
-    <row r="1846" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1845">
+        <v>141159</v>
+      </c>
+      <c r="E1845">
+        <v>138882</v>
+      </c>
+    </row>
+    <row r="1846" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1846">
         <v>50</v>
       </c>
-    </row>
-    <row r="1847" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1846">
+        <v>147188</v>
+      </c>
+      <c r="E1846">
+        <v>145516</v>
+      </c>
+    </row>
+    <row r="1847" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1847">
         <v>51</v>
       </c>
-    </row>
-    <row r="1848" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1847">
+        <v>158150</v>
+      </c>
+      <c r="E1847">
+        <v>156006</v>
+      </c>
+    </row>
+    <row r="1848" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1848">
         <v>52</v>
       </c>
-    </row>
-    <row r="1849" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1848">
+        <v>157881</v>
+      </c>
+      <c r="E1848">
+        <v>155287</v>
+      </c>
+    </row>
+    <row r="1849" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1849">
         <v>53</v>
       </c>
-    </row>
-    <row r="1850" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1849">
+        <v>188447</v>
+      </c>
+      <c r="E1849">
+        <v>184873</v>
+      </c>
+    </row>
+    <row r="1850" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1850">
         <v>54</v>
       </c>
-    </row>
-    <row r="1851" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1850">
+        <v>164940</v>
+      </c>
+      <c r="E1850">
+        <v>162493</v>
+      </c>
+    </row>
+    <row r="1851" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1851">
         <v>55</v>
       </c>
-    </row>
-    <row r="1852" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1851">
+        <v>221022</v>
+      </c>
+      <c r="E1851">
+        <v>217349</v>
+      </c>
+    </row>
+    <row r="1852" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1852">
         <v>56</v>
       </c>
-    </row>
-    <row r="1853" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1852">
+        <v>117766</v>
+      </c>
+      <c r="E1852">
+        <v>116558</v>
+      </c>
+    </row>
+    <row r="1853" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1853">
         <v>57</v>
       </c>
-    </row>
-    <row r="1854" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1853">
+        <v>142289</v>
+      </c>
+      <c r="E1853">
+        <v>140442</v>
+      </c>
+    </row>
+    <row r="1854" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1854">
         <v>58</v>
       </c>
-    </row>
-    <row r="1855" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1854">
+        <v>151360</v>
+      </c>
+      <c r="E1854">
+        <v>150205</v>
+      </c>
+    </row>
+    <row r="1855" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1855">
         <v>59</v>
       </c>
-    </row>
-    <row r="1856" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D1855">
+        <v>175216</v>
+      </c>
+      <c r="E1855">
+        <v>173692</v>
+      </c>
+    </row>
+    <row r="1856" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C1856">
         <v>60</v>
       </c>
-    </row>
-    <row r="1857" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1856">
+        <v>137906</v>
+      </c>
+      <c r="E1856">
+        <v>136134</v>
+      </c>
+    </row>
+    <row r="1857" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1857">
         <v>61</v>
       </c>
-    </row>
-    <row r="1858" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1857">
+        <v>185945</v>
+      </c>
+      <c r="E1857">
+        <v>182966</v>
+      </c>
+    </row>
+    <row r="1858" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1858">
         <v>62</v>
       </c>
-    </row>
-    <row r="1859" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1858">
+        <v>181017</v>
+      </c>
+      <c r="E1858">
+        <v>179514</v>
+      </c>
+    </row>
+    <row r="1859" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1859">
         <v>63</v>
       </c>
-    </row>
-    <row r="1860" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D1859">
+        <v>247334</v>
+      </c>
+      <c r="E1859">
+        <v>244539</v>
+      </c>
+    </row>
+    <row r="1860" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1860" t="s">
         <v>33</v>
       </c>
@@ -18740,62 +21044,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1861" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1861" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1861">
         <v>1</v>
       </c>
     </row>
-    <row r="1862" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1862" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1862">
         <v>2</v>
       </c>
     </row>
-    <row r="1863" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1863" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1863">
         <v>3</v>
       </c>
     </row>
-    <row r="1864" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1864" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1864">
         <v>4</v>
       </c>
     </row>
-    <row r="1865" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1865" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1865">
         <v>5</v>
       </c>
     </row>
-    <row r="1866" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1866" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1866">
         <v>6</v>
       </c>
     </row>
-    <row r="1867" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1867" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1867">
         <v>7</v>
       </c>
     </row>
-    <row r="1868" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1868" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1868">
         <v>8</v>
       </c>
     </row>
-    <row r="1869" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1869" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1869">
         <v>9</v>
       </c>
     </row>
-    <row r="1870" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1870" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1870">
         <v>10</v>
       </c>
     </row>
-    <row r="1871" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1871" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1871">
         <v>11</v>
       </c>
     </row>
-    <row r="1872" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1872" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1872">
         <v>12</v>
       </c>
